--- a/log/currency_rate.xlsx
+++ b/log/currency_rate.xlsx
@@ -1,97 +1,181 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="cr" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cr" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="55">
+  <si>
+    <t>2018-06-07 18:17:55</t>
+  </si>
+  <si>
+    <t>2018-06-07 18:19:45</t>
+  </si>
   <si>
     <t>工商银行</t>
   </si>
   <si>
+    <t>640.87</t>
+  </si>
+  <si>
+    <t>640.89</t>
+  </si>
+  <si>
     <t>农业银行</t>
   </si>
   <si>
+    <t>640.48</t>
+  </si>
+  <si>
     <t>中国银行</t>
   </si>
   <si>
+    <t>640.85</t>
+  </si>
+  <si>
     <t>建设银行</t>
   </si>
   <si>
+    <t>640.93</t>
+  </si>
+  <si>
+    <t>640.95</t>
+  </si>
+  <si>
     <t>邮储银行</t>
   </si>
   <si>
+    <t>640.73</t>
+  </si>
+  <si>
     <t>交通银行</t>
   </si>
   <si>
+    <t>640.98</t>
+  </si>
+  <si>
     <t>招商银行</t>
   </si>
   <si>
     <t>浦发银行</t>
   </si>
   <si>
+    <t>640.77</t>
+  </si>
+  <si>
     <t>兴业银行</t>
   </si>
   <si>
+    <t>??</t>
+  </si>
+  <si>
     <t>华夏银行</t>
   </si>
   <si>
+    <t>640.78</t>
+  </si>
+  <si>
     <t>广发银行</t>
   </si>
   <si>
+    <t>640.79</t>
+  </si>
+  <si>
+    <t>640.7</t>
+  </si>
+  <si>
     <t>民生银行</t>
   </si>
   <si>
+    <t>640.8000000000001</t>
+  </si>
+  <si>
     <t>中信银行</t>
   </si>
   <si>
+    <t>641.28</t>
+  </si>
+  <si>
     <t>光大银行</t>
   </si>
   <si>
+    <t>640.9295</t>
+  </si>
+  <si>
     <t>恒丰银行</t>
   </si>
   <si>
     <t>浙商银行</t>
   </si>
   <si>
+    <t>641.3</t>
+  </si>
+  <si>
     <t>渤海银行</t>
   </si>
   <si>
+    <t>640.56</t>
+  </si>
+  <si>
     <t>平安银行</t>
   </si>
   <si>
+    <t>640.76</t>
+  </si>
+  <si>
     <t>北京银行</t>
   </si>
   <si>
     <t>上海银行</t>
   </si>
   <si>
+    <t>640.94</t>
+  </si>
+  <si>
     <t>江苏银行</t>
   </si>
   <si>
+    <t>640.86</t>
+  </si>
+  <si>
+    <t>640.8199999999999</t>
+  </si>
+  <si>
     <t>杭州银行</t>
   </si>
   <si>
+    <t>641.15</t>
+  </si>
+  <si>
     <t>南京银行</t>
   </si>
   <si>
     <t>宁波银行</t>
   </si>
   <si>
+    <t>641.</t>
+  </si>
+  <si>
     <t>花旗银行</t>
   </si>
   <si>
+    <t>642.38</t>
+  </si>
+  <si>
     <t>汇丰银行</t>
+  </si>
+  <si>
+    <t>642.3692599999999</t>
   </si>
   <si>
     <t>恒生银行</t>
@@ -101,18 +185,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -128,16 +213,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -425,149 +509,325 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:A28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:1">
+    <row r="1" spans="1:3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
+        <v>47</v>
+      </c>
+      <c r="B24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>54</v>
+      </c>
+      <c r="B28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/log/currency_rate.xlsx
+++ b/log/currency_rate.xlsx
@@ -14,27 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="55">
-  <si>
-    <t>2018-06-07 18:17:55</t>
-  </si>
-  <si>
-    <t>2018-06-07 18:19:45</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="54">
+  <si>
+    <t>2018-06-07 19:46:41</t>
+  </si>
+  <si>
+    <t>2018-06-07 19:49:51</t>
   </si>
   <si>
     <t>工商银行</t>
   </si>
   <si>
-    <t>640.87</t>
-  </si>
-  <si>
-    <t>640.89</t>
+    <t>640.74</t>
   </si>
   <si>
     <t>农业银行</t>
   </si>
   <si>
-    <t>640.48</t>
+    <t>640.28</t>
   </si>
   <si>
     <t>中国银行</t>
@@ -46,139 +43,139 @@
     <t>建设银行</t>
   </si>
   <si>
-    <t>640.93</t>
+    <t>640.8000000000001</t>
+  </si>
+  <si>
+    <t>邮储银行</t>
+  </si>
+  <si>
+    <t>640.73</t>
+  </si>
+  <si>
+    <t>交通银行</t>
+  </si>
+  <si>
+    <t>640.86</t>
+  </si>
+  <si>
+    <t>招商银行</t>
   </si>
   <si>
     <t>640.95</t>
   </si>
   <si>
-    <t>邮储银行</t>
-  </si>
-  <si>
-    <t>640.73</t>
-  </si>
-  <si>
-    <t>交通银行</t>
-  </si>
-  <si>
-    <t>640.98</t>
-  </si>
-  <si>
-    <t>招商银行</t>
-  </si>
-  <si>
     <t>浦发银行</t>
   </si>
   <si>
-    <t>640.77</t>
+    <t>640.61</t>
   </si>
   <si>
     <t>兴业银行</t>
   </si>
   <si>
+    <t>640.81</t>
+  </si>
+  <si>
+    <t>华夏银行</t>
+  </si>
+  <si>
+    <t>640.78</t>
+  </si>
+  <si>
+    <t>广发银行</t>
+  </si>
+  <si>
+    <t>640.64</t>
+  </si>
+  <si>
+    <t>民生银行</t>
+  </si>
+  <si>
+    <t>640.7</t>
+  </si>
+  <si>
+    <t>中信银行</t>
+  </si>
+  <si>
+    <t>641.18</t>
+  </si>
+  <si>
+    <t>光大银行</t>
+  </si>
+  <si>
+    <t>640.8694</t>
+  </si>
+  <si>
+    <t>恒丰银行</t>
+  </si>
+  <si>
+    <t>浙商银行</t>
+  </si>
+  <si>
+    <t>641.2</t>
+  </si>
+  <si>
+    <t>渤海银行</t>
+  </si>
+  <si>
+    <t>640.56</t>
+  </si>
+  <si>
+    <t>平安银行</t>
+  </si>
+  <si>
+    <t>640.62</t>
+  </si>
+  <si>
+    <t>北京银行</t>
+  </si>
+  <si>
+    <t>640.79</t>
+  </si>
+  <si>
+    <t>上海银行</t>
+  </si>
+  <si>
+    <t>江苏银行</t>
+  </si>
+  <si>
+    <t>640.91</t>
+  </si>
+  <si>
+    <t>杭州银行</t>
+  </si>
+  <si>
+    <t>641.05</t>
+  </si>
+  <si>
+    <t>南京银行</t>
+  </si>
+  <si>
+    <t>宁波银行</t>
+  </si>
+  <si>
+    <t>640.94</t>
+  </si>
+  <si>
+    <t>花旗银行</t>
+  </si>
+  <si>
+    <t>642.38</t>
+  </si>
+  <si>
+    <t>汇丰银行</t>
+  </si>
+  <si>
+    <t>642.3692599999999</t>
+  </si>
+  <si>
+    <t>恒生银行</t>
+  </si>
+  <si>
+    <t>641.15</t>
+  </si>
+  <si>
     <t>??</t>
-  </si>
-  <si>
-    <t>华夏银行</t>
-  </si>
-  <si>
-    <t>640.78</t>
-  </si>
-  <si>
-    <t>广发银行</t>
-  </si>
-  <si>
-    <t>640.79</t>
-  </si>
-  <si>
-    <t>640.7</t>
-  </si>
-  <si>
-    <t>民生银行</t>
-  </si>
-  <si>
-    <t>640.8000000000001</t>
-  </si>
-  <si>
-    <t>中信银行</t>
-  </si>
-  <si>
-    <t>641.28</t>
-  </si>
-  <si>
-    <t>光大银行</t>
-  </si>
-  <si>
-    <t>640.9295</t>
-  </si>
-  <si>
-    <t>恒丰银行</t>
-  </si>
-  <si>
-    <t>浙商银行</t>
-  </si>
-  <si>
-    <t>641.3</t>
-  </si>
-  <si>
-    <t>渤海银行</t>
-  </si>
-  <si>
-    <t>640.56</t>
-  </si>
-  <si>
-    <t>平安银行</t>
-  </si>
-  <si>
-    <t>640.76</t>
-  </si>
-  <si>
-    <t>北京银行</t>
-  </si>
-  <si>
-    <t>上海银行</t>
-  </si>
-  <si>
-    <t>640.94</t>
-  </si>
-  <si>
-    <t>江苏银行</t>
-  </si>
-  <si>
-    <t>640.86</t>
-  </si>
-  <si>
-    <t>640.8199999999999</t>
-  </si>
-  <si>
-    <t>杭州银行</t>
-  </si>
-  <si>
-    <t>641.15</t>
-  </si>
-  <si>
-    <t>南京银行</t>
-  </si>
-  <si>
-    <t>宁波银行</t>
-  </si>
-  <si>
-    <t>641.</t>
-  </si>
-  <si>
-    <t>花旗银行</t>
-  </si>
-  <si>
-    <t>642.38</t>
-  </si>
-  <si>
-    <t>汇丰银行</t>
-  </si>
-  <si>
-    <t>642.3692599999999</t>
-  </si>
-  <si>
-    <t>恒生银行</t>
   </si>
 </sst>
 </file>
@@ -538,293 +535,293 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C26" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C27" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C28" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/log/currency_rate.xlsx
+++ b/log/currency_rate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="75">
   <si>
     <t>2018-06-07 19:46:41</t>
   </si>
@@ -22,30 +22,54 @@
     <t>2018-06-07 19:49:51</t>
   </si>
   <si>
+    <t>2018-06-07 20:00:17</t>
+  </si>
+  <si>
+    <t>2018-06-07 20:10:39</t>
+  </si>
+  <si>
     <t>工商银行</t>
   </si>
   <si>
     <t>640.74</t>
   </si>
   <si>
+    <t>640.71</t>
+  </si>
+  <si>
+    <t>640.69</t>
+  </si>
+  <si>
     <t>农业银行</t>
   </si>
   <si>
     <t>640.28</t>
   </si>
   <si>
+    <t>640.18</t>
+  </si>
+  <si>
     <t>中国银行</t>
   </si>
   <si>
     <t>640.85</t>
   </si>
   <si>
+    <t>640.8</t>
+  </si>
+  <si>
     <t>建设银行</t>
   </si>
   <si>
     <t>640.8000000000001</t>
   </si>
   <si>
+    <t>640.77</t>
+  </si>
+  <si>
+    <t>640.75</t>
+  </si>
+  <si>
     <t>邮储银行</t>
   </si>
   <si>
@@ -58,6 +82,9 @@
     <t>640.86</t>
   </si>
   <si>
+    <t>640.81</t>
+  </si>
+  <si>
     <t>招商银行</t>
   </si>
   <si>
@@ -70,12 +97,15 @@
     <t>640.61</t>
   </si>
   <si>
+    <t>640.58</t>
+  </si>
+  <si>
+    <t>640.56</t>
+  </si>
+  <si>
     <t>兴业银行</t>
   </si>
   <si>
-    <t>640.81</t>
-  </si>
-  <si>
     <t>华夏银行</t>
   </si>
   <si>
@@ -88,6 +118,12 @@
     <t>640.64</t>
   </si>
   <si>
+    <t>640.6</t>
+  </si>
+  <si>
+    <t>640.59</t>
+  </si>
+  <si>
     <t>民生银行</t>
   </si>
   <si>
@@ -100,27 +136,45 @@
     <t>641.18</t>
   </si>
   <si>
+    <t>641.17</t>
+  </si>
+  <si>
+    <t>641.21</t>
+  </si>
+  <si>
     <t>光大银行</t>
   </si>
   <si>
     <t>640.8694</t>
   </si>
   <si>
+    <t>640.8093</t>
+  </si>
+  <si>
     <t>恒丰银行</t>
   </si>
   <si>
+    <t>640.84</t>
+  </si>
+  <si>
+    <t>640.88</t>
+  </si>
+  <si>
     <t>浙商银行</t>
   </si>
   <si>
     <t>641.2</t>
   </si>
   <si>
+    <t>641.19</t>
+  </si>
+  <si>
+    <t>641.23</t>
+  </si>
+  <si>
     <t>渤海银行</t>
   </si>
   <si>
-    <t>640.56</t>
-  </si>
-  <si>
     <t>平安银行</t>
   </si>
   <si>
@@ -148,6 +202,9 @@
     <t>641.05</t>
   </si>
   <si>
+    <t>641.08</t>
+  </si>
+  <si>
     <t>南京银行</t>
   </si>
   <si>
@@ -155,6 +212,12 @@
   </si>
   <si>
     <t>640.94</t>
+  </si>
+  <si>
+    <t>640.89</t>
+  </si>
+  <si>
+    <t>640.83</t>
   </si>
   <si>
     <t>花旗银行</t>
@@ -511,7 +574,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,309 +582,477 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" t="s">
         <v>26</v>
       </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+      <c r="C19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" t="s">
         <v>28</v>
       </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="E19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>56</v>
+      </c>
+      <c r="D20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>56</v>
+      </c>
+      <c r="D21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>59</v>
+      </c>
+      <c r="D22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="C23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>61</v>
+      </c>
+      <c r="D23" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>49</v>
+      </c>
+      <c r="D24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="C25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>65</v>
+      </c>
+      <c r="D25" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="C26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>69</v>
+      </c>
+      <c r="D26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="C27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>71</v>
+      </c>
+      <c r="D27" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="C28" t="s">
-        <v>53</v>
+        <v>74</v>
+      </c>
+      <c r="D28" t="s">
+        <v>73</v>
+      </c>
+      <c r="E28" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/log/currency_rate.xlsx
+++ b/log/currency_rate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="102">
   <si>
     <t>2018-06-07 19:46:41</t>
   </si>
@@ -28,6 +28,21 @@
     <t>2018-06-07 20:10:39</t>
   </si>
   <si>
+    <t>2018-06-08 09:02:51</t>
+  </si>
+  <si>
+    <t>2018-06-08 09:19:49</t>
+  </si>
+  <si>
+    <t>2018-06-08 09:30:21</t>
+  </si>
+  <si>
+    <t>2018-06-08 09:31:40</t>
+  </si>
+  <si>
+    <t>2018-06-08 09:33:09</t>
+  </si>
+  <si>
     <t>工商银行</t>
   </si>
   <si>
@@ -40,6 +55,9 @@
     <t>640.69</t>
   </si>
   <si>
+    <t>640.63</t>
+  </si>
+  <si>
     <t>农业银行</t>
   </si>
   <si>
@@ -49,6 +67,9 @@
     <t>640.18</t>
   </si>
   <si>
+    <t>640.98</t>
+  </si>
+  <si>
     <t>中国银行</t>
   </si>
   <si>
@@ -58,6 +79,15 @@
     <t>640.8</t>
   </si>
   <si>
+    <t>641.3</t>
+  </si>
+  <si>
+    <t>16291.0</t>
+  </si>
+  <si>
+    <t>641.2</t>
+  </si>
+  <si>
     <t>建设银行</t>
   </si>
   <si>
@@ -91,6 +121,9 @@
     <t>640.95</t>
   </si>
   <si>
+    <t>640.6</t>
+  </si>
+  <si>
     <t>浦发银行</t>
   </si>
   <si>
@@ -103,9 +136,18 @@
     <t>640.56</t>
   </si>
   <si>
+    <t>640.47</t>
+  </si>
+  <si>
     <t>兴业银行</t>
   </si>
   <si>
+    <t>640.7</t>
+  </si>
+  <si>
+    <t>641.51</t>
+  </si>
+  <si>
     <t>华夏银行</t>
   </si>
   <si>
@@ -118,16 +160,19 @@
     <t>640.64</t>
   </si>
   <si>
-    <t>640.6</t>
-  </si>
-  <si>
     <t>640.59</t>
   </si>
   <si>
+    <t>640.5300000000001</t>
+  </si>
+  <si>
+    <t>641.08</t>
+  </si>
+  <si>
     <t>民生银行</t>
   </si>
   <si>
-    <t>640.7</t>
+    <t>641.05</t>
   </si>
   <si>
     <t>中信银行</t>
@@ -142,6 +187,15 @@
     <t>641.21</t>
   </si>
   <si>
+    <t>641.26</t>
+  </si>
+  <si>
+    <t>642.06</t>
+  </si>
+  <si>
+    <t>641.56</t>
+  </si>
+  <si>
     <t>光大银行</t>
   </si>
   <si>
@@ -151,6 +205,9 @@
     <t>640.8093</t>
   </si>
   <si>
+    <t>640.7541</t>
+  </si>
+  <si>
     <t>恒丰银行</t>
   </si>
   <si>
@@ -160,49 +217,67 @@
     <t>640.88</t>
   </si>
   <si>
+    <t>640.93</t>
+  </si>
+  <si>
     <t>浙商银行</t>
   </si>
   <si>
-    <t>641.2</t>
-  </si>
-  <si>
     <t>641.19</t>
   </si>
   <si>
     <t>641.23</t>
   </si>
   <si>
+    <t>641.28</t>
+  </si>
+  <si>
+    <t>641.15</t>
+  </si>
+  <si>
+    <t>641.24</t>
+  </si>
+  <si>
     <t>渤海银行</t>
   </si>
   <si>
+    <t>640.49</t>
+  </si>
+  <si>
     <t>平安银行</t>
   </si>
   <si>
     <t>640.62</t>
   </si>
   <si>
+    <t>640.5</t>
+  </si>
+  <si>
     <t>北京银行</t>
   </si>
   <si>
     <t>640.79</t>
   </si>
   <si>
+    <t>640.91</t>
+  </si>
+  <si>
     <t>上海银行</t>
   </si>
   <si>
     <t>江苏银行</t>
   </si>
   <si>
-    <t>640.91</t>
+    <t>640.9399999999999</t>
+  </si>
+  <si>
+    <t>641.22</t>
   </si>
   <si>
     <t>杭州银行</t>
   </si>
   <si>
-    <t>641.05</t>
-  </si>
-  <si>
-    <t>641.08</t>
+    <t>640.8100000000001</t>
   </si>
   <si>
     <t>南京银行</t>
@@ -220,6 +295,15 @@
     <t>640.83</t>
   </si>
   <si>
+    <t>641.68</t>
+  </si>
+  <si>
+    <t>641.38</t>
+  </si>
+  <si>
+    <t>641.53</t>
+  </si>
+  <si>
     <t>花旗银行</t>
   </si>
   <si>
@@ -233,9 +317,6 @@
   </si>
   <si>
     <t>恒生银行</t>
-  </si>
-  <si>
-    <t>641.15</t>
   </si>
   <si>
     <t>??</t>
@@ -574,7 +655,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -582,7 +663,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:10">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -595,464 +676,884 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="G5" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="H11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" t="s">
+        <v>49</v>
+      </c>
+      <c r="J12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H14" t="s">
+        <v>57</v>
+      </c>
+      <c r="I14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" t="s">
+        <v>63</v>
+      </c>
+      <c r="I15" t="s">
+        <v>63</v>
+      </c>
+      <c r="J15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" t="s">
+        <v>67</v>
+      </c>
+      <c r="I16" t="s">
+        <v>67</v>
+      </c>
+      <c r="J16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" t="s">
+        <v>71</v>
+      </c>
+      <c r="H17" t="s">
+        <v>71</v>
+      </c>
+      <c r="I17" t="s">
+        <v>72</v>
+      </c>
+      <c r="J17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" t="s">
+        <v>75</v>
+      </c>
+      <c r="I18" t="s">
+        <v>75</v>
+      </c>
+      <c r="J18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G19" t="s">
+        <v>78</v>
+      </c>
+      <c r="H19" t="s">
+        <v>78</v>
+      </c>
+      <c r="I19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
+      <c r="J19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G20" t="s">
+        <v>81</v>
+      </c>
+      <c r="H20" t="s">
+        <v>81</v>
+      </c>
+      <c r="I20" t="s">
+        <v>81</v>
+      </c>
+      <c r="J20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" t="s">
+        <v>80</v>
+      </c>
+      <c r="F21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" t="s">
+        <v>81</v>
+      </c>
+      <c r="F22" t="s">
+        <v>84</v>
+      </c>
+      <c r="G22" t="s">
+        <v>84</v>
+      </c>
+      <c r="H22" t="s">
+        <v>84</v>
+      </c>
+      <c r="I22" t="s">
+        <v>84</v>
+      </c>
+      <c r="J22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" t="s">
+        <v>87</v>
+      </c>
+      <c r="G23" t="s">
+        <v>87</v>
+      </c>
+      <c r="H23" t="s">
+        <v>87</v>
+      </c>
+      <c r="I23" t="s">
+        <v>87</v>
+      </c>
+      <c r="J23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" t="s">
-        <v>59</v>
-      </c>
-      <c r="E22" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
-        <v>60</v>
-      </c>
-      <c r="B23" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" t="s">
-        <v>61</v>
-      </c>
-      <c r="E23" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>63</v>
-      </c>
-      <c r="B24" t="s">
-        <v>49</v>
-      </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="E24" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>70</v>
+      </c>
+      <c r="F24" t="s">
+        <v>71</v>
+      </c>
+      <c r="G24" t="s">
+        <v>71</v>
+      </c>
+      <c r="H24" t="s">
+        <v>71</v>
+      </c>
+      <c r="I24" t="s">
+        <v>71</v>
+      </c>
+      <c r="J24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="B25" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="C25" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="D25" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="E25" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>92</v>
+      </c>
+      <c r="F25" t="s">
+        <v>93</v>
+      </c>
+      <c r="G25" t="s">
+        <v>94</v>
+      </c>
+      <c r="H25" t="s">
+        <v>95</v>
+      </c>
+      <c r="I25" t="s">
+        <v>70</v>
+      </c>
+      <c r="J25" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="B26" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="C26" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="D26" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="E26" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>97</v>
+      </c>
+      <c r="F26" t="s">
+        <v>97</v>
+      </c>
+      <c r="G26" t="s">
+        <v>97</v>
+      </c>
+      <c r="H26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I26" t="s">
+        <v>97</v>
+      </c>
+      <c r="J26" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="B27" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="C27" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="D27" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="E27" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>99</v>
+      </c>
+      <c r="F27" t="s">
+        <v>99</v>
+      </c>
+      <c r="G27" t="s">
+        <v>99</v>
+      </c>
+      <c r="H27" t="s">
+        <v>99</v>
+      </c>
+      <c r="I27" t="s">
+        <v>99</v>
+      </c>
+      <c r="J27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28" t="s">
         <v>72</v>
       </c>
-      <c r="B28" t="s">
-        <v>73</v>
-      </c>
       <c r="C28" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="D28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E28" t="s">
-        <v>73</v>
+        <v>72</v>
+      </c>
+      <c r="F28" t="s">
+        <v>72</v>
+      </c>
+      <c r="G28" t="s">
+        <v>72</v>
+      </c>
+      <c r="H28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I28" t="s">
+        <v>72</v>
+      </c>
+      <c r="J28" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/log/currency_rate.xlsx
+++ b/log/currency_rate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="233">
   <si>
     <t>2018-06-07 19:46:41</t>
   </si>
@@ -106,7 +106,7 @@
     <t>2018-06-08 13:18:28</t>
   </si>
   <si>
-    <t>2018-06-08 13:50:56</t>
+    <t>2018-06-08 13:56:36</t>
   </si>
   <si>
     <t>工商银行</t>
@@ -172,228 +172,234 @@
     <t>641.87</t>
   </si>
   <si>
+    <t>641.6</t>
+  </si>
+  <si>
+    <t>农业银行</t>
+  </si>
+  <si>
+    <t>640.28</t>
+  </si>
+  <si>
+    <t>640.18</t>
+  </si>
+  <si>
+    <t>640.98</t>
+  </si>
+  <si>
+    <t>641.18</t>
+  </si>
+  <si>
+    <t>641.28</t>
+  </si>
+  <si>
+    <t>641.36</t>
+  </si>
+  <si>
+    <t>641.43</t>
+  </si>
+  <si>
+    <t>641.53</t>
+  </si>
+  <si>
+    <t>641.48</t>
+  </si>
+  <si>
+    <t>641.73</t>
+  </si>
+  <si>
+    <t>641.68</t>
+  </si>
+  <si>
+    <t>中国银行</t>
+  </si>
+  <si>
+    <t>640.85</t>
+  </si>
+  <si>
+    <t>640.8</t>
+  </si>
+  <si>
+    <t>641.3</t>
+  </si>
+  <si>
+    <t>16291.0</t>
+  </si>
+  <si>
+    <t>641.2</t>
+  </si>
+  <si>
+    <t>641.35</t>
+  </si>
+  <si>
+    <t>641.5</t>
+  </si>
+  <si>
+    <t>641.55</t>
+  </si>
+  <si>
+    <t>641.64</t>
+  </si>
+  <si>
+    <t>641.62</t>
+  </si>
+  <si>
+    <t>641.82</t>
+  </si>
+  <si>
+    <t>Got Wrong</t>
+  </si>
+  <si>
+    <t>641.84</t>
+  </si>
+  <si>
+    <t>建设银行</t>
+  </si>
+  <si>
+    <t>640.8000000000001</t>
+  </si>
+  <si>
+    <t>640.77</t>
+  </si>
+  <si>
+    <t>640.75</t>
+  </si>
+  <si>
+    <t>641.23</t>
+  </si>
+  <si>
     <t>641.45</t>
   </si>
   <si>
-    <t>农业银行</t>
-  </si>
-  <si>
-    <t>640.28</t>
-  </si>
-  <si>
-    <t>640.18</t>
-  </si>
-  <si>
-    <t>640.98</t>
-  </si>
-  <si>
-    <t>641.18</t>
-  </si>
-  <si>
-    <t>641.28</t>
-  </si>
-  <si>
-    <t>641.36</t>
-  </si>
-  <si>
-    <t>641.43</t>
-  </si>
-  <si>
-    <t>641.53</t>
-  </si>
-  <si>
-    <t>641.48</t>
-  </si>
-  <si>
-    <t>641.73</t>
-  </si>
-  <si>
-    <t>641.68</t>
+    <t>641.65</t>
+  </si>
+  <si>
+    <t>641.61</t>
+  </si>
+  <si>
+    <t>641.9100000000001</t>
+  </si>
+  <si>
+    <t>641.8000000000001</t>
+  </si>
+  <si>
+    <t>641.76</t>
+  </si>
+  <si>
+    <t>641.86</t>
+  </si>
+  <si>
+    <t>641.8199999999999</t>
+  </si>
+  <si>
+    <t>641.83</t>
+  </si>
+  <si>
+    <t>641.93</t>
+  </si>
+  <si>
+    <t>641.94</t>
+  </si>
+  <si>
+    <t>641.6800000000001</t>
+  </si>
+  <si>
+    <t>邮储银行</t>
+  </si>
+  <si>
+    <t>640.73</t>
+  </si>
+  <si>
+    <t>640.5</t>
+  </si>
+  <si>
+    <t>641.46</t>
+  </si>
+  <si>
+    <t>641.66</t>
+  </si>
+  <si>
+    <t>交通银行</t>
+  </si>
+  <si>
+    <t>640.86</t>
+  </si>
+  <si>
+    <t>640.81</t>
+  </si>
+  <si>
+    <t>641.44</t>
+  </si>
+  <si>
+    <t>641.58</t>
+  </si>
+  <si>
+    <t>641.72</t>
+  </si>
+  <si>
+    <t>641.7</t>
+  </si>
+  <si>
+    <t>642.</t>
+  </si>
+  <si>
+    <t>641.92</t>
+  </si>
+  <si>
+    <t>641.91</t>
+  </si>
+  <si>
+    <t>641.88</t>
+  </si>
+  <si>
+    <t>641.89</t>
+  </si>
+  <si>
+    <t>招商银行</t>
+  </si>
+  <si>
+    <t>640.95</t>
+  </si>
+  <si>
+    <t>640.6</t>
+  </si>
+  <si>
+    <t>641.75</t>
+  </si>
+  <si>
+    <t>641.9</t>
+  </si>
+  <si>
+    <t>浦发银行</t>
+  </si>
+  <si>
+    <t>640.61</t>
+  </si>
+  <si>
+    <t>640.58</t>
+  </si>
+  <si>
+    <t>640.56</t>
+  </si>
+  <si>
+    <t>640.47</t>
+  </si>
+  <si>
+    <t>641.16</t>
+  </si>
+  <si>
+    <t>641.33</t>
+  </si>
+  <si>
+    <t>641.39</t>
+  </si>
+  <si>
+    <t>641.51</t>
   </si>
   <si>
     <t>641.47</t>
   </si>
   <si>
-    <t>中国银行</t>
-  </si>
-  <si>
-    <t>640.85</t>
-  </si>
-  <si>
-    <t>640.8</t>
-  </si>
-  <si>
-    <t>641.3</t>
-  </si>
-  <si>
-    <t>16291.0</t>
-  </si>
-  <si>
-    <t>641.2</t>
-  </si>
-  <si>
-    <t>641.35</t>
-  </si>
-  <si>
-    <t>641.5</t>
-  </si>
-  <si>
-    <t>641.55</t>
-  </si>
-  <si>
-    <t>641.64</t>
-  </si>
-  <si>
-    <t>641.62</t>
-  </si>
-  <si>
-    <t>641.82</t>
-  </si>
-  <si>
-    <t>Got Wrong</t>
-  </si>
-  <si>
-    <t>641.84</t>
-  </si>
-  <si>
-    <t>建设银行</t>
-  </si>
-  <si>
-    <t>640.8000000000001</t>
-  </si>
-  <si>
-    <t>640.77</t>
-  </si>
-  <si>
-    <t>640.75</t>
-  </si>
-  <si>
-    <t>641.23</t>
-  </si>
-  <si>
-    <t>641.6</t>
-  </si>
-  <si>
-    <t>641.65</t>
-  </si>
-  <si>
-    <t>641.61</t>
-  </si>
-  <si>
-    <t>641.9100000000001</t>
-  </si>
-  <si>
-    <t>641.8000000000001</t>
-  </si>
-  <si>
-    <t>641.76</t>
-  </si>
-  <si>
-    <t>641.86</t>
-  </si>
-  <si>
-    <t>641.8199999999999</t>
-  </si>
-  <si>
-    <t>641.83</t>
-  </si>
-  <si>
-    <t>641.93</t>
-  </si>
-  <si>
-    <t>641.94</t>
-  </si>
-  <si>
-    <t>邮储银行</t>
-  </si>
-  <si>
-    <t>640.73</t>
-  </si>
-  <si>
-    <t>640.5</t>
-  </si>
-  <si>
-    <t>641.46</t>
-  </si>
-  <si>
-    <t>交通银行</t>
-  </si>
-  <si>
-    <t>640.86</t>
-  </si>
-  <si>
-    <t>640.81</t>
-  </si>
-  <si>
-    <t>641.44</t>
-  </si>
-  <si>
-    <t>641.58</t>
-  </si>
-  <si>
-    <t>641.72</t>
-  </si>
-  <si>
-    <t>641.7</t>
-  </si>
-  <si>
-    <t>642.</t>
-  </si>
-  <si>
-    <t>641.92</t>
-  </si>
-  <si>
-    <t>641.91</t>
-  </si>
-  <si>
-    <t>641.88</t>
-  </si>
-  <si>
-    <t>641.89</t>
-  </si>
-  <si>
-    <t>招商银行</t>
-  </si>
-  <si>
-    <t>640.95</t>
-  </si>
-  <si>
-    <t>640.6</t>
-  </si>
-  <si>
-    <t>641.75</t>
-  </si>
-  <si>
-    <t>641.9</t>
-  </si>
-  <si>
-    <t>浦发银行</t>
-  </si>
-  <si>
-    <t>640.61</t>
-  </si>
-  <si>
-    <t>640.58</t>
-  </si>
-  <si>
-    <t>640.56</t>
-  </si>
-  <si>
-    <t>640.47</t>
-  </si>
-  <si>
-    <t>641.16</t>
-  </si>
-  <si>
-    <t>641.33</t>
-  </si>
-  <si>
-    <t>641.39</t>
-  </si>
-  <si>
-    <t>641.51</t>
-  </si>
-  <si>
     <t>641.42</t>
   </si>
   <si>
@@ -463,9 +469,6 @@
     <t>641.7099999999999</t>
   </si>
   <si>
-    <t>641.66</t>
-  </si>
-  <si>
     <t>中信银行</t>
   </si>
   <si>
@@ -514,6 +517,9 @@
     <t>642.26</t>
   </si>
   <si>
+    <t>641.95</t>
+  </si>
+  <si>
     <t>光大银行</t>
   </si>
   <si>
@@ -650,9 +656,6 @@
   </si>
   <si>
     <t>南京银行</t>
-  </si>
-  <si>
-    <t>641.95</t>
   </si>
   <si>
     <t>642.21</t>
@@ -717,12 +720,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -744,13 +754,13 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
@@ -1047,11 +1057,11 @@
   </sheetPr>
   <dimension ref="A1:AF28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AD24" sqref="AD24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:32">
       <c r="B1" t="s">
@@ -1341,122 +1351,122 @@
         <v>63</v>
       </c>
       <c r="AF3" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:32">
       <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" t="s">
         <v>66</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" t="s">
         <v>67</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>67</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>68</v>
       </c>
-      <c r="E4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>69</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>70</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4" t="s">
+        <v>70</v>
+      </c>
+      <c r="K4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" t="s">
         <v>71</v>
       </c>
-      <c r="I4" t="s">
-        <v>71</v>
-      </c>
-      <c r="J4" t="s">
-        <v>71</v>
-      </c>
-      <c r="K4" t="s">
-        <v>71</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>72</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>73</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
+        <v>73</v>
+      </c>
+      <c r="P4" t="s">
         <v>74</v>
       </c>
-      <c r="O4" t="s">
-        <v>74</v>
-      </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>75</v>
       </c>
-      <c r="Q4" t="s">
-        <v>76</v>
-      </c>
       <c r="R4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S4" t="s">
         <v>44</v>
       </c>
       <c r="T4" t="s">
+        <v>76</v>
+      </c>
+      <c r="U4" t="s">
         <v>77</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>78</v>
       </c>
-      <c r="V4" t="s">
-        <v>79</v>
-      </c>
       <c r="W4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Z4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AA4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AC4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AD4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AE4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AF4" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:32">
       <c r="A5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" t="s">
         <v>80</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" t="s">
         <v>81</v>
       </c>
-      <c r="C5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>82</v>
-      </c>
-      <c r="E5" t="s">
-        <v>83</v>
       </c>
       <c r="F5" t="s">
         <v>34</v>
@@ -1474,13 +1484,13 @@
         <v>34</v>
       </c>
       <c r="K5" t="s">
+        <v>83</v>
+      </c>
+      <c r="L5" t="s">
         <v>84</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>52</v>
-      </c>
-      <c r="M5" t="s">
-        <v>85</v>
       </c>
       <c r="N5" t="s">
         <v>39</v>
@@ -1489,31 +1499,31 @@
         <v>41</v>
       </c>
       <c r="P5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q5" t="s">
         <v>41</v>
       </c>
       <c r="R5" t="s">
+        <v>86</v>
+      </c>
+      <c r="S5" t="s">
         <v>87</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>88</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>89</v>
       </c>
-      <c r="U5" t="s">
-        <v>90</v>
-      </c>
       <c r="V5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W5" t="s">
         <v>44</v>
       </c>
       <c r="X5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y5" t="s">
         <v>44</v>
@@ -1525,19 +1535,19 @@
         <v>44</v>
       </c>
       <c r="AB5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC5" t="s">
         <v>92</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>93</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>94</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
         <v>95</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:32">
@@ -1617,66 +1627,66 @@
         <v>99</v>
       </c>
       <c r="Z6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AA6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AB6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AC6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AD6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AE6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AF6" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:32">
       <c r="A7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N7" t="s">
         <v>43</v>
@@ -1685,117 +1695,117 @@
         <v>64</v>
       </c>
       <c r="P7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="R7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="S7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="U7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Y7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Z7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AA7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AB7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AC7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AD7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AE7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF7" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:32">
       <c r="A8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K8" t="s">
+        <v>84</v>
+      </c>
+      <c r="L8" t="s">
         <v>52</v>
       </c>
-      <c r="L8" t="s">
-        <v>85</v>
-      </c>
       <c r="M8" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="N8" t="s">
         <v>48</v>
       </c>
       <c r="O8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="R8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="S8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="T8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="U8" t="s">
         <v>44</v>
@@ -1807,120 +1817,120 @@
         <v>44</v>
       </c>
       <c r="X8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Y8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Z8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AA8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AB8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AC8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AD8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AE8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AF8" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:32">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q9" t="s">
-        <v>65</v>
+        <v>127</v>
       </c>
       <c r="R9" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="S9" t="s">
         <v>63</v>
       </c>
       <c r="T9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="U9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="V9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W9" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="X9" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Y9" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Z9" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AA9" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AB9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AC9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AD9" t="s">
         <v>45</v>
@@ -1929,54 +1939,54 @@
         <v>45</v>
       </c>
       <c r="AF9" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:32">
       <c r="A10" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F10" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G10" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P10" t="s">
         <v>64</v>
@@ -1988,13 +1998,13 @@
         <v>64</v>
       </c>
       <c r="S10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="T10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="U10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="V10" t="s">
         <v>45</v>
@@ -2018,33 +2028,33 @@
         <v>45</v>
       </c>
       <c r="AC10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AD10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AE10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AF10" t="s">
-        <v>41</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:32">
       <c r="A11" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B11" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C11" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D11" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E11" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F11" t="s">
         <v>35</v>
@@ -2068,25 +2078,25 @@
         <v>35</v>
       </c>
       <c r="M11" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="N11" t="s">
         <v>99</v>
       </c>
       <c r="O11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q11" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="R11" t="s">
         <v>40</v>
       </c>
       <c r="S11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="T11" t="s">
         <v>44</v>
@@ -2125,57 +2135,57 @@
         <v>51</v>
       </c>
       <c r="AF11" t="s">
-        <v>41</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:32">
       <c r="A12" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B12" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C12" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E12" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F12" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G12" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H12" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="I12" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="J12" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K12" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M12" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="N12" t="s">
         <v>38</v>
       </c>
       <c r="O12" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>65</v>
+        <v>127</v>
       </c>
       <c r="Q12" t="s">
         <v>38</v>
@@ -2187,22 +2197,22 @@
         <v>46</v>
       </c>
       <c r="T12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="U12" t="s">
         <v>61</v>
       </c>
       <c r="V12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W12" t="s">
         <v>46</v>
       </c>
       <c r="X12" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Y12" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Z12" t="s">
         <v>46</v>
@@ -2211,30 +2221,30 @@
         <v>46</v>
       </c>
       <c r="AB12" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AC12" t="s">
         <v>45</v>
       </c>
       <c r="AD12" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AE12" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AF12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:32">
       <c r="A13" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B13" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C13" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D13" t="s">
         <v>34</v>
@@ -2243,28 +2253,28 @@
         <v>97</v>
       </c>
       <c r="F13" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G13" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H13" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I13" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="J13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K13" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L13" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M13" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="N13" t="s">
         <v>99</v>
@@ -2276,57 +2286,57 @@
         <v>62</v>
       </c>
       <c r="Q13" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="R13" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="S13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="T13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U13" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="V13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="W13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="X13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Y13" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Z13" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AA13" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AB13" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AC13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AD13" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AE13" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AF13" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:32">
       <c r="A14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B14" t="s">
         <v>57</v>
@@ -2335,251 +2345,251 @@
         <v>57</v>
       </c>
       <c r="D14" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E14" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F14" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G14" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H14" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I14" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J14" t="s">
         <v>43</v>
       </c>
       <c r="K14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L14" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N14" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O14" t="s">
+        <v>110</v>
+      </c>
+      <c r="P14" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>93</v>
+      </c>
+      <c r="R14" t="s">
         <v>109</v>
       </c>
-      <c r="P14" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>94</v>
-      </c>
-      <c r="R14" t="s">
-        <v>108</v>
-      </c>
       <c r="S14" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="T14" t="s">
+        <v>159</v>
+      </c>
+      <c r="U14" t="s">
+        <v>160</v>
+      </c>
+      <c r="V14" t="s">
+        <v>161</v>
+      </c>
+      <c r="W14" t="s">
+        <v>162</v>
+      </c>
+      <c r="X14" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y14" t="s">
         <v>158</v>
       </c>
-      <c r="U14" t="s">
-        <v>159</v>
-      </c>
-      <c r="V14" t="s">
-        <v>160</v>
-      </c>
-      <c r="W14" t="s">
-        <v>161</v>
-      </c>
-      <c r="X14" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>157</v>
-      </c>
       <c r="Z14" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AA14" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AB14" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AC14" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AD14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AE14" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AF14" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:32">
       <c r="A15" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B15" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C15" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D15" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E15" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F15" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G15" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H15" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="I15" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="J15" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K15" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L15" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M15" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="N15" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="O15" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P15" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q15" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="R15" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="S15" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="T15" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="U15" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="V15" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="W15" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="X15" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Y15" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Z15" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AA15" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AB15" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AC15" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AD15" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AE15" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AF15" t="s">
-        <v>46</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:32">
       <c r="A16" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D16" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E16" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F16" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G16" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H16" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="I16" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J16" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K16" t="s">
         <v>36</v>
       </c>
       <c r="L16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M16" t="s">
         <v>40</v>
       </c>
       <c r="N16" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O16" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P16" t="s">
         <v>41</v>
       </c>
       <c r="Q16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R16" t="s">
         <v>42</v>
       </c>
       <c r="S16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T16" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="U16" t="s">
         <v>47</v>
@@ -2594,13 +2604,13 @@
         <v>51</v>
       </c>
       <c r="Y16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB16" t="s">
         <v>49</v>
@@ -2609,30 +2619,30 @@
         <v>44</v>
       </c>
       <c r="AD16" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE16" t="s">
         <v>109</v>
       </c>
-      <c r="AE16" t="s">
-        <v>108</v>
-      </c>
       <c r="AF16" t="s">
-        <v>140</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:32">
       <c r="A17" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D17" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F17" t="s">
         <v>58</v>
@@ -2644,22 +2654,22 @@
         <v>58</v>
       </c>
       <c r="I17" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="J17" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K17" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L17" t="s">
         <v>37</v>
       </c>
       <c r="M17" t="s">
-        <v>65</v>
+        <v>127</v>
       </c>
       <c r="N17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O17" t="s">
         <v>61</v>
@@ -2668,28 +2678,28 @@
         <v>39</v>
       </c>
       <c r="Q17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R17" t="s">
         <v>39</v>
       </c>
       <c r="S17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T17" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="U17" t="s">
-        <v>149</v>
+        <v>100</v>
       </c>
       <c r="V17" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="W17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="X17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y17" t="s">
         <v>50</v>
@@ -2704,105 +2714,105 @@
         <v>48</v>
       </c>
       <c r="AC17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD17" t="s">
         <v>51</v>
       </c>
       <c r="AE17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AF17" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:32">
       <c r="A18" t="s">
+        <v>190</v>
+      </c>
+      <c r="B18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D18" t="s">
+        <v>121</v>
+      </c>
+      <c r="E18" t="s">
+        <v>121</v>
+      </c>
+      <c r="F18" t="s">
+        <v>191</v>
+      </c>
+      <c r="G18" t="s">
+        <v>191</v>
+      </c>
+      <c r="H18" t="s">
+        <v>191</v>
+      </c>
+      <c r="I18" t="s">
+        <v>191</v>
+      </c>
+      <c r="J18" t="s">
+        <v>191</v>
+      </c>
+      <c r="K18" t="s">
+        <v>191</v>
+      </c>
+      <c r="L18" t="s">
         <v>188</v>
       </c>
-      <c r="B18" t="s">
-        <v>120</v>
-      </c>
-      <c r="C18" t="s">
-        <v>120</v>
-      </c>
-      <c r="D18" t="s">
-        <v>120</v>
-      </c>
-      <c r="E18" t="s">
-        <v>120</v>
-      </c>
-      <c r="F18" t="s">
-        <v>189</v>
-      </c>
-      <c r="G18" t="s">
-        <v>189</v>
-      </c>
-      <c r="H18" t="s">
-        <v>189</v>
-      </c>
-      <c r="I18" t="s">
-        <v>189</v>
-      </c>
-      <c r="J18" t="s">
-        <v>189</v>
-      </c>
-      <c r="K18" t="s">
-        <v>189</v>
-      </c>
-      <c r="L18" t="s">
-        <v>186</v>
-      </c>
       <c r="M18" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="N18" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O18" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="P18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q18" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="R18" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="S18" t="s">
         <v>47</v>
       </c>
       <c r="T18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U18" t="s">
         <v>43</v>
       </c>
       <c r="V18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="W18" t="s">
-        <v>149</v>
+        <v>100</v>
       </c>
       <c r="X18" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Y18" t="s">
-        <v>149</v>
+        <v>100</v>
       </c>
       <c r="Z18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AA18" t="s">
-        <v>149</v>
+        <v>100</v>
       </c>
       <c r="AB18" t="s">
         <v>41</v>
       </c>
       <c r="AC18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AD18" t="s">
         <v>45</v>
@@ -2811,24 +2821,24 @@
         <v>45</v>
       </c>
       <c r="AF18" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:32">
       <c r="A19" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B19" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C19" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D19" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E19" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F19" t="s">
         <v>98</v>
@@ -2846,25 +2856,25 @@
         <v>56</v>
       </c>
       <c r="K19" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L19" t="s">
         <v>36</v>
       </c>
       <c r="M19" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="N19" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="O19" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="P19" t="s">
         <v>61</v>
       </c>
       <c r="Q19" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="R19" t="s">
         <v>60</v>
@@ -2873,99 +2883,99 @@
         <v>47</v>
       </c>
       <c r="T19" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="U19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W19" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="X19" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Y19" t="s">
-        <v>149</v>
+        <v>100</v>
       </c>
       <c r="Z19" t="s">
-        <v>149</v>
+        <v>100</v>
       </c>
       <c r="AA19" t="s">
-        <v>149</v>
+        <v>100</v>
       </c>
       <c r="AB19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AC19" t="s">
-        <v>149</v>
+        <v>100</v>
       </c>
       <c r="AD19" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AE19" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AF19" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:32">
       <c r="A20" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B20" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C20" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D20" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E20" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F20" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G20" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H20" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="I20" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="J20" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K20" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L20" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M20" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N20" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O20" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P20" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>74</v>
+      </c>
+      <c r="R20" t="s">
         <v>75</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>75</v>
-      </c>
-      <c r="R20" t="s">
-        <v>76</v>
       </c>
       <c r="S20" t="s">
         <v>39</v>
@@ -2974,57 +2984,57 @@
         <v>39</v>
       </c>
       <c r="U20" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="V20" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="W20" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="X20" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Y20" t="s">
         <v>51</v>
       </c>
       <c r="Z20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF20" t="s">
-        <v>77</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:32">
       <c r="A21" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B21" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C21" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D21" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E21" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F21" t="s">
         <v>34</v>
@@ -3048,10 +3058,10 @@
         <v>34</v>
       </c>
       <c r="M21" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="N21" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="O21" t="s">
         <v>41</v>
@@ -3060,10 +3070,10 @@
         <v>41</v>
       </c>
       <c r="Q21" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="R21" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="S21" t="s">
         <v>47</v>
@@ -3072,13 +3082,13 @@
         <v>47</v>
       </c>
       <c r="U21" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="V21" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="W21" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="X21" t="s">
         <v>44</v>
@@ -3099,48 +3109,48 @@
         <v>44</v>
       </c>
       <c r="AD21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AE21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AF21" t="s">
-        <v>178</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:32">
       <c r="A22" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B22" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C22" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D22" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E22" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F22" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G22" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H22" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="I22" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="J22" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K22" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L22" t="s">
         <v>60</v>
@@ -3149,10 +3159,10 @@
         <v>40</v>
       </c>
       <c r="N22" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="O22" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="P22" t="s">
         <v>39</v>
@@ -3161,164 +3171,164 @@
         <v>41</v>
       </c>
       <c r="R22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T22" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="U22" t="s">
         <v>63</v>
       </c>
       <c r="V22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W22" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="X22" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Y22" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Z22" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AA22" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AB22" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AC22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AD22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AE22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AF22" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:32">
       <c r="A23" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B23" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C23" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D23" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E23" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F23" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G23" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H23" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="I23" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="J23" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K23" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L23" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="M23" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="N23" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="O23" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="P23" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q23" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="R23" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="S23" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="T23" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="U23" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="V23" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="W23" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="X23" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Y23" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Z23" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AA23" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AB23" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AC23" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AD23" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AE23" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AF23" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:32">
       <c r="A24" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D24" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F24" t="s">
         <v>58</v>
@@ -3339,105 +3349,105 @@
         <v>58</v>
       </c>
       <c r="L24" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N24" t="s">
+        <v>93</v>
+      </c>
+      <c r="O24" t="s">
+        <v>93</v>
+      </c>
+      <c r="P24" t="s">
         <v>94</v>
       </c>
-      <c r="O24" t="s">
+      <c r="Q24" t="s">
+        <v>167</v>
+      </c>
+      <c r="R24" t="s">
         <v>94</v>
       </c>
-      <c r="P24" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>212</v>
-      </c>
-      <c r="R24" t="s">
-        <v>95</v>
-      </c>
       <c r="S24" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="T24" t="s">
+        <v>215</v>
+      </c>
+      <c r="U24" t="s">
+        <v>155</v>
+      </c>
+      <c r="V24" t="s">
+        <v>216</v>
+      </c>
+      <c r="W24" t="s">
+        <v>217</v>
+      </c>
+      <c r="X24" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y24" t="s">
         <v>214</v>
       </c>
-      <c r="U24" t="s">
-        <v>154</v>
-      </c>
-      <c r="V24" t="s">
-        <v>215</v>
-      </c>
-      <c r="W24" t="s">
-        <v>216</v>
-      </c>
-      <c r="X24" t="s">
-        <v>216</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>213</v>
-      </c>
       <c r="Z24" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AA24" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AB24" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AC24" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AD24" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AE24" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AF24" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25" spans="1:32">
       <c r="A25" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B25" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C25" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D25" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E25" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F25" t="s">
         <v>64</v>
       </c>
       <c r="G25" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H25" t="s">
         <v>61</v>
       </c>
       <c r="I25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J25" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K25" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L25" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M25" t="s">
         <v>41</v>
@@ -3458,343 +3468,344 @@
         <v>45</v>
       </c>
       <c r="S25" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="T25" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="U25" t="s">
         <v>51</v>
       </c>
       <c r="V25" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="W25" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="X25" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Y25" t="s">
-        <v>212</v>
+        <v>167</v>
       </c>
       <c r="Z25" t="s">
-        <v>212</v>
+        <v>167</v>
       </c>
       <c r="AA25" t="s">
-        <v>212</v>
+        <v>167</v>
       </c>
       <c r="AB25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AC25" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AD25" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AE25" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF25" t="s">
-        <v>212</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:32">
       <c r="A26" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B26" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C26" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D26" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E26" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F26" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G26" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H26" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I26" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J26" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K26" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L26" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M26" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N26" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O26" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P26" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q26" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="R26" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="S26" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="T26" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="U26" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="V26" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="W26" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="X26" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="Y26" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="Z26" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="AA26" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="AB26" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="AC26" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="AD26" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="AE26" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="AF26" t="s">
-        <v>208</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:32">
       <c r="A27" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B27" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C27" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D27" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E27" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F27" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G27" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H27" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I27" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J27" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K27" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L27" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M27" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N27" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O27" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P27" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q27" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="R27" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="S27" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="T27" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="U27" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="V27" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="W27" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="X27" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Y27" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Z27" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AA27" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AB27" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AC27" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AD27" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AE27" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AF27" t="s">
-        <v>164</v>
+        <v>230</v>
       </c>
     </row>
     <row r="28" spans="1:32">
       <c r="A28" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B28" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C28" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D28" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E28" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F28" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G28" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H28" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="I28" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="J28" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K28" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L28" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M28" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N28" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O28" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P28" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q28" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="R28" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="S28" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="T28" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="U28" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="V28" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="W28" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="X28" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Y28" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Z28" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AA28" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AB28" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AC28" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AD28" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AE28" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF28" t="s">
-        <v>229</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/log/currency_rate.xlsx
+++ b/log/currency_rate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="250">
   <si>
     <t>2018-06-08 15:30:19</t>
   </si>
@@ -25,6 +25,222 @@
     <t>2018-06-08 15:51:09</t>
   </si>
   <si>
+    <t>2018-06-08 16:01:34</t>
+  </si>
+  <si>
+    <t>2018-06-08 16:11:57</t>
+  </si>
+  <si>
+    <t>2018-06-08 16:22:43</t>
+  </si>
+  <si>
+    <t>2018-06-08 16:33:08</t>
+  </si>
+  <si>
+    <t>2018-06-08 16:43:31</t>
+  </si>
+  <si>
+    <t>2018-06-08 16:53:56</t>
+  </si>
+  <si>
+    <t>2018-06-09 10:18:05</t>
+  </si>
+  <si>
+    <t>2018-06-09 10:28:32</t>
+  </si>
+  <si>
+    <t>2018-06-09 10:39:04</t>
+  </si>
+  <si>
+    <t>2018-06-09 10:49:38</t>
+  </si>
+  <si>
+    <t>2018-06-09 11:00:21</t>
+  </si>
+  <si>
+    <t>2018-06-09 11:10:38</t>
+  </si>
+  <si>
+    <t>2018-06-09 11:20:56</t>
+  </si>
+  <si>
+    <t>2018-06-09 11:31:16</t>
+  </si>
+  <si>
+    <t>2018-06-09 11:41:36</t>
+  </si>
+  <si>
+    <t>2018-06-09 11:51:53</t>
+  </si>
+  <si>
+    <t>2018-06-09 12:02:16</t>
+  </si>
+  <si>
+    <t>2018-06-09 12:12:35</t>
+  </si>
+  <si>
+    <t>2018-06-09 12:23:01</t>
+  </si>
+  <si>
+    <t>2018-06-09 12:33:18</t>
+  </si>
+  <si>
+    <t>2018-06-09 12:43:40</t>
+  </si>
+  <si>
+    <t>2018-06-09 12:53:59</t>
+  </si>
+  <si>
+    <t>2018-06-09 13:04:17</t>
+  </si>
+  <si>
+    <t>2018-06-09 13:14:36</t>
+  </si>
+  <si>
+    <t>2018-06-09 13:24:52</t>
+  </si>
+  <si>
+    <t>2018-06-09 13:35:10</t>
+  </si>
+  <si>
+    <t>2018-06-09 13:45:26</t>
+  </si>
+  <si>
+    <t>2018-06-09 13:55:47</t>
+  </si>
+  <si>
+    <t>2018-06-09 14:06:04</t>
+  </si>
+  <si>
+    <t>2018-06-09 14:16:23</t>
+  </si>
+  <si>
+    <t>2018-06-09 14:26:39</t>
+  </si>
+  <si>
+    <t>2018-06-09 14:37:06</t>
+  </si>
+  <si>
+    <t>2018-06-09 14:47:27</t>
+  </si>
+  <si>
+    <t>2018-06-09 14:57:44</t>
+  </si>
+  <si>
+    <t>2018-06-09 15:08:08</t>
+  </si>
+  <si>
+    <t>2018-06-09 15:18:25</t>
+  </si>
+  <si>
+    <t>2018-06-09 15:28:41</t>
+  </si>
+  <si>
+    <t>2018-06-09 15:39:05</t>
+  </si>
+  <si>
+    <t>2018-06-09 15:49:23</t>
+  </si>
+  <si>
+    <t>2018-06-09 15:59:42</t>
+  </si>
+  <si>
+    <t>2018-06-09 16:10:01</t>
+  </si>
+  <si>
+    <t>2018-06-09 16:20:48</t>
+  </si>
+  <si>
+    <t>2018-06-09 16:31:04</t>
+  </si>
+  <si>
+    <t>2018-06-09 16:41:21</t>
+  </si>
+  <si>
+    <t>2018-06-09 16:51:39</t>
+  </si>
+  <si>
+    <t>2018-06-09 17:01:57</t>
+  </si>
+  <si>
+    <t>2018-06-11 10:23:34</t>
+  </si>
+  <si>
+    <t>2018-06-11 10:35:04</t>
+  </si>
+  <si>
+    <t>2018-06-11 10:46:35</t>
+  </si>
+  <si>
+    <t>2018-06-11 10:58:01</t>
+  </si>
+  <si>
+    <t>2018-06-11 11:09:35</t>
+  </si>
+  <si>
+    <t>2018-06-11 11:21:34</t>
+  </si>
+  <si>
+    <t>2018-06-11 11:31:55</t>
+  </si>
+  <si>
+    <t>2018-06-11 11:42:17</t>
+  </si>
+  <si>
+    <t>2018-06-11 11:52:33</t>
+  </si>
+  <si>
+    <t>2018-06-11 12:02:52</t>
+  </si>
+  <si>
+    <t>2018-06-11 12:13:17</t>
+  </si>
+  <si>
+    <t>2018-06-11 12:23:40</t>
+  </si>
+  <si>
+    <t>2018-06-11 12:34:07</t>
+  </si>
+  <si>
+    <t>2018-06-11 12:44:32</t>
+  </si>
+  <si>
+    <t>2018-06-11 12:54:52</t>
+  </si>
+  <si>
+    <t>2018-06-11 13:05:09</t>
+  </si>
+  <si>
+    <t>2018-06-11 13:15:26</t>
+  </si>
+  <si>
+    <t>2018-06-11 13:20:21</t>
+  </si>
+  <si>
+    <t>2018-06-11 13:31:58</t>
+  </si>
+  <si>
+    <t>2018-06-11 13:43:35</t>
+  </si>
+  <si>
+    <t>2018-06-11 13:53:52</t>
+  </si>
+  <si>
+    <t>2018-06-11 13:54:22</t>
+  </si>
+  <si>
+    <t>2018-06-11 13:55:24</t>
+  </si>
+  <si>
+    <t>2018-06-11 14:05:42</t>
+  </si>
+  <si>
+    <t>2018-06-11 14:16:03</t>
+  </si>
+  <si>
+    <t>2018-06-11 14:33:54</t>
+  </si>
+  <si>
     <t>工商银行</t>
   </si>
   <si>
@@ -37,6 +253,66 @@
     <t>642.3700</t>
   </si>
   <si>
+    <t>642.2700</t>
+  </si>
+  <si>
+    <t>642.3500</t>
+  </si>
+  <si>
+    <t>642.5600</t>
+  </si>
+  <si>
+    <t>642.4400</t>
+  </si>
+  <si>
+    <t>642.3800</t>
+  </si>
+  <si>
+    <t>642.1800</t>
+  </si>
+  <si>
+    <t>642.2100</t>
+  </si>
+  <si>
+    <t>642.1400</t>
+  </si>
+  <si>
+    <t>642.1900</t>
+  </si>
+  <si>
+    <t>642.2200</t>
+  </si>
+  <si>
+    <t>642.2000</t>
+  </si>
+  <si>
+    <t>642.0000</t>
+  </si>
+  <si>
+    <t>642.0300</t>
+  </si>
+  <si>
+    <t>641.9900</t>
+  </si>
+  <si>
+    <t>641.9700</t>
+  </si>
+  <si>
+    <t>641.9800</t>
+  </si>
+  <si>
+    <t>642.1200</t>
+  </si>
+  <si>
+    <t>642.1500</t>
+  </si>
+  <si>
+    <t>641.7200</t>
+  </si>
+  <si>
+    <t>641.9400</t>
+  </si>
+  <si>
     <t>农业银行</t>
   </si>
   <si>
@@ -46,10 +322,67 @@
     <t>642.2800</t>
   </si>
   <si>
+    <t>642.1300</t>
+  </si>
+  <si>
+    <t>642.4600</t>
+  </si>
+  <si>
+    <t>642.3300</t>
+  </si>
+  <si>
+    <t>641.8800</t>
+  </si>
+  <si>
+    <t>642.1100</t>
+  </si>
+  <si>
+    <t>642.0800</t>
+  </si>
+  <si>
+    <t>641.8300</t>
+  </si>
+  <si>
+    <t>641.7800</t>
+  </si>
+  <si>
+    <t>641.7300</t>
+  </si>
+  <si>
+    <t>641.6300</t>
+  </si>
+  <si>
     <t>中国银行</t>
   </si>
   <si>
-    <t>642.3800</t>
+    <t>642.5100</t>
+  </si>
+  <si>
+    <t>642.6100</t>
+  </si>
+  <si>
+    <t>642.4300</t>
+  </si>
+  <si>
+    <t>642.2400</t>
+  </si>
+  <si>
+    <t>Got Wrong!</t>
+  </si>
+  <si>
+    <t>642.2500</t>
+  </si>
+  <si>
+    <t>642.3600</t>
+  </si>
+  <si>
+    <t>642.3400</t>
+  </si>
+  <si>
+    <t>641.9600</t>
+  </si>
+  <si>
+    <t>641.9000</t>
   </si>
   <si>
     <t>建设银行</t>
@@ -58,13 +391,37 @@
     <t>641.6700</t>
   </si>
   <si>
+    <t>642.0500</t>
+  </si>
+  <si>
+    <t>642.2600</t>
+  </si>
+  <si>
+    <t>642.3200</t>
+  </si>
+  <si>
+    <t>642.0600</t>
+  </si>
+  <si>
+    <t>642.0400</t>
+  </si>
+  <si>
+    <t>641.8500</t>
+  </si>
+  <si>
     <t>邮储银行</t>
   </si>
   <si>
     <t>641.5500</t>
   </si>
   <si>
-    <t>642.0800</t>
+    <t>642.3000</t>
+  </si>
+  <si>
+    <t>641.8700</t>
+  </si>
+  <si>
+    <t>642.1600</t>
   </si>
   <si>
     <t>交通银行</t>
@@ -73,6 +430,39 @@
     <t>642.4500</t>
   </si>
   <si>
+    <t>642.5300</t>
+  </si>
+  <si>
+    <t>642.3900</t>
+  </si>
+  <si>
+    <t>642.5800</t>
+  </si>
+  <si>
+    <t>642.6900</t>
+  </si>
+  <si>
+    <t>642.5400</t>
+  </si>
+  <si>
+    <t>643.2400</t>
+  </si>
+  <si>
+    <t>642.2900</t>
+  </si>
+  <si>
+    <t>642.4100</t>
+  </si>
+  <si>
+    <t>642.1000</t>
+  </si>
+  <si>
+    <t>642.0900</t>
+  </si>
+  <si>
+    <t>641.9200</t>
+  </si>
+  <si>
     <t>招商银行</t>
   </si>
   <si>
@@ -82,52 +472,76 @@
     <t>642.6000</t>
   </si>
   <si>
+    <t>642.6500</t>
+  </si>
+  <si>
+    <t>642.7500</t>
+  </si>
+  <si>
+    <t>642.5500</t>
+  </si>
+  <si>
+    <t>642.0100</t>
+  </si>
+  <si>
+    <t>641.9500</t>
+  </si>
+  <si>
     <t>浦发银行</t>
   </si>
   <si>
-    <t>642.1400</t>
-  </si>
-  <si>
-    <t>642.2700</t>
+    <t>642.0700</t>
+  </si>
+  <si>
+    <t>641.8600</t>
+  </si>
+  <si>
+    <t>641.6600</t>
+  </si>
+  <si>
+    <t>641.7100</t>
   </si>
   <si>
     <t>兴业银行</t>
   </si>
   <si>
-    <t>642.4400</t>
+    <t>641.8000</t>
   </si>
   <si>
     <t>华夏银行</t>
   </si>
   <si>
-    <t>642.3600</t>
-  </si>
-  <si>
     <t>642.4000</t>
   </si>
   <si>
+    <t>642.4800</t>
+  </si>
+  <si>
+    <t>641.8900</t>
+  </si>
+  <si>
+    <t>642.0200</t>
+  </si>
+  <si>
     <t>广发银行</t>
   </si>
   <si>
-    <t>642.2600</t>
-  </si>
-  <si>
-    <t>642.3400</t>
-  </si>
-  <si>
-    <t>642.3500</t>
+    <t>641.7000</t>
+  </si>
+  <si>
+    <t>641.9100</t>
   </si>
   <si>
     <t>民生银行</t>
   </si>
   <si>
-    <t>642.2500</t>
-  </si>
-  <si>
-    <t>642.3000</t>
-  </si>
-  <si>
-    <t>642.3200</t>
+    <t>642.1700</t>
+  </si>
+  <si>
+    <t>641.8200</t>
+  </si>
+  <si>
+    <t>641.6900</t>
   </si>
   <si>
     <t>中信银行</t>
@@ -142,6 +556,30 @@
     <t>642.8100</t>
   </si>
   <si>
+    <t>642.6400</t>
+  </si>
+  <si>
+    <t>642.9900</t>
+  </si>
+  <si>
+    <t>642.8500</t>
+  </si>
+  <si>
+    <t>642.8000</t>
+  </si>
+  <si>
+    <t>642.2026</t>
+  </si>
+  <si>
+    <t>642.5700</t>
+  </si>
+  <si>
+    <t>642.1374</t>
+  </si>
+  <si>
+    <t>642.4700</t>
+  </si>
+  <si>
     <t>光大银行</t>
   </si>
   <si>
@@ -151,19 +589,52 @@
     <t>642.4833</t>
   </si>
   <si>
+    <t>642.3981</t>
+  </si>
+  <si>
+    <t>642.6988</t>
+  </si>
+  <si>
+    <t>642.7289</t>
+  </si>
+  <si>
+    <t>642.3279</t>
+  </si>
+  <si>
+    <t>642.3078</t>
+  </si>
+  <si>
+    <t>642.4131</t>
+  </si>
+  <si>
+    <t>642.3429</t>
+  </si>
+  <si>
+    <t>642.2878</t>
+  </si>
+  <si>
+    <t>641.9871</t>
+  </si>
+  <si>
     <t>恒丰银行</t>
   </si>
   <si>
     <t>642.4900</t>
   </si>
   <si>
-    <t>642.4600</t>
+    <t>642.6700</t>
+  </si>
+  <si>
+    <t>642.5200</t>
+  </si>
+  <si>
+    <t>642.7700</t>
   </si>
   <si>
     <t>浙商银行</t>
   </si>
   <si>
-    <t>642.4100</t>
+    <t>641.8400</t>
   </si>
   <si>
     <t>渤海银行</t>
@@ -172,55 +643,49 @@
     <t>平安银行</t>
   </si>
   <si>
-    <t>642.2200</t>
-  </si>
-  <si>
-    <t>642.2900</t>
-  </si>
-  <si>
     <t>北京银行</t>
   </si>
   <si>
-    <t>642.1800</t>
-  </si>
-  <si>
     <t>上海银行</t>
   </si>
   <si>
-    <t>642.4700</t>
-  </si>
-  <si>
     <t>江苏银行</t>
   </si>
   <si>
+    <t>642.7000</t>
+  </si>
+  <si>
+    <t>642.6200</t>
+  </si>
+  <si>
     <t>杭州银行</t>
   </si>
   <si>
-    <t>642.4800</t>
-  </si>
-  <si>
-    <t>642.6500</t>
-  </si>
-  <si>
     <t>642.6800</t>
   </si>
   <si>
+    <t>642.8200</t>
+  </si>
+  <si>
+    <t>642.5900</t>
+  </si>
+  <si>
     <t>南京银行</t>
   </si>
   <si>
-    <t>642.7500</t>
-  </si>
-  <si>
-    <t>642.8000</t>
+    <t>642.9700</t>
   </si>
   <si>
     <t>宁波银行</t>
   </si>
   <si>
-    <t>642.5300</t>
-  </si>
-  <si>
-    <t>642.5600</t>
+    <t>642.7200</t>
+  </si>
+  <si>
+    <t>644.0500</t>
+  </si>
+  <si>
+    <t>644.1004</t>
   </si>
   <si>
     <t>花旗银行</t>
@@ -229,22 +694,61 @@
     <t>641.7400</t>
   </si>
   <si>
+    <t>644.7204</t>
+  </si>
+  <si>
+    <t>644.2851</t>
+  </si>
+  <si>
+    <t>644.3054</t>
+  </si>
+  <si>
+    <t>643.0500</t>
+  </si>
+  <si>
     <t>汇丰银行</t>
   </si>
   <si>
     <t>643.9490</t>
   </si>
   <si>
+    <t>644.4042</t>
+  </si>
+  <si>
+    <t>643.4000</t>
+  </si>
+  <si>
+    <t>643.8553</t>
+  </si>
+  <si>
     <t>恒生银行</t>
   </si>
   <si>
-    <t>643.0500</t>
+    <t>643.1500</t>
+  </si>
+  <si>
+    <t>641.6550</t>
   </si>
   <si>
     <t>大华银行</t>
   </si>
   <si>
-    <t>641.7000</t>
+    <t>642.2650</t>
+  </si>
+  <si>
+    <t>641.9050</t>
+  </si>
+  <si>
+    <t>641.8250</t>
+  </si>
+  <si>
+    <t>641.7050</t>
+  </si>
+  <si>
+    <t>641.6750</t>
+  </si>
+  <si>
+    <t>641.7700</t>
   </si>
   <si>
     <t>盛京银行</t>
@@ -253,10 +757,13 @@
     <t>642.0250</t>
   </si>
   <si>
-    <t>642.0100</t>
-  </si>
-  <si>
     <t>642.1250</t>
+  </si>
+  <si>
+    <t>641.7600</t>
+  </si>
+  <si>
+    <t>641.6650</t>
   </si>
 </sst>
 </file>
@@ -592,7 +1099,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:BX30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -600,7 +1107,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:76">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -610,411 +1117,6801 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:76">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>78</v>
+      </c>
+      <c r="E2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L2" t="s">
+        <v>84</v>
+      </c>
+      <c r="M2" t="s">
+        <v>84</v>
+      </c>
+      <c r="N2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O2" t="s">
+        <v>84</v>
+      </c>
+      <c r="P2" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>84</v>
+      </c>
+      <c r="R2" t="s">
+        <v>84</v>
+      </c>
+      <c r="S2" t="s">
+        <v>84</v>
+      </c>
+      <c r="T2" t="s">
+        <v>84</v>
+      </c>
+      <c r="U2" t="s">
+        <v>84</v>
+      </c>
+      <c r="V2" t="s">
+        <v>84</v>
+      </c>
+      <c r="W2" t="s">
+        <v>84</v>
+      </c>
+      <c r="X2" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>86</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>87</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>88</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>89</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>90</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>96</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>97</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:76">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="E3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J3" t="s">
+        <v>101</v>
+      </c>
+      <c r="K3" t="s">
+        <v>105</v>
+      </c>
+      <c r="L3" t="s">
+        <v>105</v>
+      </c>
+      <c r="M3" t="s">
+        <v>105</v>
+      </c>
+      <c r="N3" t="s">
+        <v>105</v>
+      </c>
+      <c r="O3" t="s">
+        <v>105</v>
+      </c>
+      <c r="P3" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>105</v>
+      </c>
+      <c r="R3" t="s">
+        <v>105</v>
+      </c>
+      <c r="S3" t="s">
+        <v>105</v>
+      </c>
+      <c r="T3" t="s">
+        <v>105</v>
+      </c>
+      <c r="U3" t="s">
+        <v>106</v>
+      </c>
+      <c r="V3" t="s">
+        <v>105</v>
+      </c>
+      <c r="W3" t="s">
+        <v>105</v>
+      </c>
+      <c r="X3" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>106</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>107</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>107</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>107</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>102</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>102</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>108</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>108</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>108</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>108</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>108</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>109</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>109</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>109</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>109</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>109</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>109</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>109</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>109</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>109</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>109</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>85</v>
+      </c>
+      <c r="BU3" t="s">
+        <v>105</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>105</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>110</v>
+      </c>
+      <c r="BX3" t="s">
+        <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:76">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>83</v>
+      </c>
+      <c r="E4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H4" t="s">
+        <v>115</v>
+      </c>
+      <c r="I4" t="s">
+        <v>115</v>
+      </c>
+      <c r="J4" t="s">
+        <v>115</v>
+      </c>
+      <c r="K4" t="s">
+        <v>106</v>
+      </c>
+      <c r="L4" t="s">
+        <v>106</v>
+      </c>
+      <c r="M4" t="s">
+        <v>106</v>
+      </c>
+      <c r="N4" t="s">
+        <v>106</v>
+      </c>
+      <c r="O4" t="s">
+        <v>106</v>
+      </c>
+      <c r="P4" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>106</v>
+      </c>
+      <c r="R4" t="s">
+        <v>106</v>
+      </c>
+      <c r="S4" t="s">
+        <v>106</v>
+      </c>
+      <c r="T4" t="s">
+        <v>106</v>
+      </c>
+      <c r="U4" t="s">
+        <v>116</v>
+      </c>
+      <c r="V4" t="s">
+        <v>106</v>
+      </c>
+      <c r="W4" t="s">
+        <v>106</v>
+      </c>
+      <c r="X4" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>79</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>119</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>82</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>106</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>106</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>106</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>106</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>106</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>106</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>106</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>106</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>106</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>106</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>106</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>106</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>106</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>106</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>85</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BU4" t="s">
+        <v>85</v>
+      </c>
+      <c r="BV4" t="s">
+        <v>85</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>121</v>
+      </c>
+      <c r="BX4" t="s">
+        <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:76">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>124</v>
+      </c>
+      <c r="E5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F5" t="s">
+        <v>124</v>
+      </c>
+      <c r="G5" t="s">
+        <v>124</v>
+      </c>
+      <c r="H5" t="s">
+        <v>124</v>
+      </c>
+      <c r="I5" t="s">
+        <v>124</v>
+      </c>
+      <c r="J5" t="s">
+        <v>124</v>
+      </c>
+      <c r="K5" t="s">
+        <v>116</v>
+      </c>
+      <c r="L5" t="s">
+        <v>116</v>
+      </c>
+      <c r="M5" t="s">
+        <v>116</v>
+      </c>
+      <c r="N5" t="s">
+        <v>116</v>
+      </c>
+      <c r="O5" t="s">
+        <v>116</v>
+      </c>
+      <c r="P5" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>116</v>
+      </c>
+      <c r="R5" t="s">
+        <v>116</v>
+      </c>
+      <c r="S5" t="s">
+        <v>116</v>
+      </c>
+      <c r="T5" t="s">
+        <v>116</v>
+      </c>
+      <c r="U5" t="s">
+        <v>125</v>
+      </c>
+      <c r="V5" t="s">
+        <v>116</v>
+      </c>
+      <c r="W5" t="s">
+        <v>116</v>
+      </c>
+      <c r="X5" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>125</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>125</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>88</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>126</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>101</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>127</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>126</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>128</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>107</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>125</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>129</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>129</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>129</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>125</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>91</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>91</v>
+      </c>
+      <c r="BN5" t="s">
+        <v>91</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>91</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>91</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>102</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>96</v>
+      </c>
+      <c r="BT5" t="s">
+        <v>105</v>
+      </c>
+      <c r="BU5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BV5" t="s">
+        <v>85</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>130</v>
+      </c>
+      <c r="BX5" t="s">
+        <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:76">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>131</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>132</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>107</v>
+      </c>
+      <c r="E6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H6" t="s">
+        <v>107</v>
+      </c>
+      <c r="I6" t="s">
+        <v>100</v>
+      </c>
+      <c r="J6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K6" t="s">
+        <v>125</v>
+      </c>
+      <c r="L6" t="s">
+        <v>125</v>
+      </c>
+      <c r="M6" t="s">
+        <v>125</v>
+      </c>
+      <c r="N6" t="s">
+        <v>125</v>
+      </c>
+      <c r="O6" t="s">
+        <v>125</v>
+      </c>
+      <c r="P6" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>125</v>
+      </c>
+      <c r="R6" t="s">
+        <v>125</v>
+      </c>
+      <c r="S6" t="s">
+        <v>125</v>
+      </c>
+      <c r="T6" t="s">
+        <v>125</v>
+      </c>
+      <c r="U6" t="s">
+        <v>133</v>
+      </c>
+      <c r="V6" t="s">
+        <v>125</v>
+      </c>
+      <c r="W6" t="s">
+        <v>125</v>
+      </c>
+      <c r="X6" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>133</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>125</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>125</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>125</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>125</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>125</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>125</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>125</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>133</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>125</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>125</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>125</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>125</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>125</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>125</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>125</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>125</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>125</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>106</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>106</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>106</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>106</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>106</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>134</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>134</v>
+      </c>
+      <c r="BN6" t="s">
+        <v>134</v>
+      </c>
+      <c r="BO6" t="s">
+        <v>134</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>134</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>134</v>
+      </c>
+      <c r="BR6" t="s">
+        <v>105</v>
+      </c>
+      <c r="BS6" t="s">
+        <v>105</v>
+      </c>
+      <c r="BT6" t="s">
+        <v>135</v>
+      </c>
+      <c r="BU6" t="s">
+        <v>105</v>
+      </c>
+      <c r="BV6" t="s">
+        <v>105</v>
+      </c>
+      <c r="BW6" t="s">
+        <v>105</v>
+      </c>
+      <c r="BX6" t="s">
+        <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:76">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>137</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>137</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>137</v>
+      </c>
+      <c r="E7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H7" t="s">
+        <v>141</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L7" t="s">
+        <v>133</v>
+      </c>
+      <c r="M7" t="s">
+        <v>133</v>
+      </c>
+      <c r="N7" t="s">
+        <v>133</v>
+      </c>
+      <c r="O7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>133</v>
+      </c>
+      <c r="R7" t="s">
+        <v>133</v>
+      </c>
+      <c r="S7" t="s">
+        <v>133</v>
+      </c>
+      <c r="T7" t="s">
+        <v>133</v>
+      </c>
+      <c r="U7" t="s">
+        <v>143</v>
+      </c>
+      <c r="V7" t="s">
+        <v>133</v>
+      </c>
+      <c r="W7" t="s">
+        <v>133</v>
+      </c>
+      <c r="X7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>143</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>133</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>133</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>133</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>133</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>133</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>133</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>133</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>133</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>133</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>133</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>143</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>133</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>133</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>133</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>133</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>133</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>133</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>133</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>78</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>144</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>144</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>120</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>145</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>106</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>86</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>96</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>146</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>147</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>146</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>106</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>106</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>147</v>
+      </c>
+      <c r="BN7" t="s">
+        <v>147</v>
+      </c>
+      <c r="BO7" t="s">
+        <v>147</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>147</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>147</v>
+      </c>
+      <c r="BR7" t="s">
+        <v>106</v>
+      </c>
+      <c r="BS7" t="s">
+        <v>135</v>
+      </c>
+      <c r="BT7" t="s">
+        <v>146</v>
+      </c>
+      <c r="BU7" t="s">
+        <v>89</v>
+      </c>
+      <c r="BV7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BW7" t="s">
+        <v>107</v>
+      </c>
+      <c r="BX7" t="s">
+        <v>148</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:76">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>149</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>137</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>151</v>
+      </c>
+      <c r="E8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F8" t="s">
+        <v>153</v>
+      </c>
+      <c r="G8" t="s">
+        <v>153</v>
+      </c>
+      <c r="H8" t="s">
+        <v>154</v>
+      </c>
+      <c r="I8" t="s">
+        <v>154</v>
+      </c>
+      <c r="J8" t="s">
+        <v>154</v>
+      </c>
+      <c r="K8" t="s">
+        <v>143</v>
+      </c>
+      <c r="L8" t="s">
+        <v>143</v>
+      </c>
+      <c r="M8" t="s">
+        <v>143</v>
+      </c>
+      <c r="N8" t="s">
+        <v>143</v>
+      </c>
+      <c r="O8" t="s">
+        <v>143</v>
+      </c>
+      <c r="P8" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>143</v>
+      </c>
+      <c r="R8" t="s">
+        <v>143</v>
+      </c>
+      <c r="S8" t="s">
+        <v>143</v>
+      </c>
+      <c r="T8" t="s">
+        <v>143</v>
+      </c>
+      <c r="U8" t="s">
+        <v>155</v>
+      </c>
+      <c r="V8" t="s">
+        <v>143</v>
+      </c>
+      <c r="W8" t="s">
+        <v>143</v>
+      </c>
+      <c r="X8" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>155</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>143</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>143</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>143</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>143</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>143</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>143</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>143</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>143</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>143</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>143</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>143</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>155</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>143</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>143</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>143</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>143</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>143</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>143</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>143</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>133</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>133</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>133</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>80</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>80</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>89</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>146</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>146</v>
+      </c>
+      <c r="BG8" t="s">
+        <v>146</v>
+      </c>
+      <c r="BH8" t="s">
+        <v>146</v>
+      </c>
+      <c r="BI8" t="s">
+        <v>146</v>
+      </c>
+      <c r="BJ8" t="s">
+        <v>146</v>
+      </c>
+      <c r="BK8" t="s">
+        <v>146</v>
+      </c>
+      <c r="BL8" t="s">
+        <v>146</v>
+      </c>
+      <c r="BM8" t="s">
+        <v>146</v>
+      </c>
+      <c r="BN8" t="s">
+        <v>146</v>
+      </c>
+      <c r="BO8" t="s">
+        <v>146</v>
+      </c>
+      <c r="BP8" t="s">
+        <v>146</v>
+      </c>
+      <c r="BQ8" t="s">
+        <v>146</v>
+      </c>
+      <c r="BR8" t="s">
+        <v>146</v>
+      </c>
+      <c r="BS8" t="s">
+        <v>146</v>
+      </c>
+      <c r="BT8" t="s">
+        <v>121</v>
+      </c>
+      <c r="BU8" t="s">
+        <v>146</v>
+      </c>
+      <c r="BV8" t="s">
+        <v>125</v>
+      </c>
+      <c r="BW8" t="s">
+        <v>156</v>
+      </c>
+      <c r="BX8" t="s">
+        <v>125</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:76">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>157</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>79</v>
+      </c>
+      <c r="E9" t="s">
+        <v>135</v>
+      </c>
+      <c r="F9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" t="s">
+        <v>137</v>
+      </c>
+      <c r="H9" t="s">
+        <v>133</v>
+      </c>
+      <c r="I9" t="s">
+        <v>144</v>
+      </c>
+      <c r="J9" t="s">
+        <v>79</v>
+      </c>
+      <c r="K9" t="s">
+        <v>155</v>
+      </c>
+      <c r="L9" t="s">
+        <v>155</v>
+      </c>
+      <c r="M9" t="s">
+        <v>155</v>
+      </c>
+      <c r="N9" t="s">
+        <v>155</v>
+      </c>
+      <c r="O9" t="s">
+        <v>155</v>
+      </c>
+      <c r="P9" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>155</v>
+      </c>
+      <c r="R9" t="s">
+        <v>155</v>
+      </c>
+      <c r="S9" t="s">
+        <v>155</v>
+      </c>
+      <c r="T9" t="s">
+        <v>155</v>
+      </c>
+      <c r="U9" t="s">
+        <v>118</v>
+      </c>
+      <c r="V9" t="s">
+        <v>155</v>
+      </c>
+      <c r="W9" t="s">
+        <v>155</v>
+      </c>
+      <c r="X9" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>155</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>155</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>155</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>155</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>155</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>155</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>155</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>155</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>155</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>155</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>155</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>155</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>155</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>155</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>155</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>155</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>155</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>155</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>155</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>128</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>158</v>
+      </c>
+      <c r="BB9" t="s">
+        <v>107</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>135</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>107</v>
+      </c>
+      <c r="BE9" t="s">
+        <v>105</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG9" t="s">
+        <v>159</v>
+      </c>
+      <c r="BH9" t="s">
+        <v>130</v>
+      </c>
+      <c r="BI9" t="s">
+        <v>130</v>
+      </c>
+      <c r="BJ9" t="s">
+        <v>159</v>
+      </c>
+      <c r="BK9" t="s">
+        <v>159</v>
+      </c>
+      <c r="BL9" t="s">
+        <v>159</v>
+      </c>
+      <c r="BM9" t="s">
+        <v>130</v>
+      </c>
+      <c r="BN9" t="s">
+        <v>130</v>
+      </c>
+      <c r="BO9" t="s">
+        <v>130</v>
+      </c>
+      <c r="BP9" t="s">
+        <v>130</v>
+      </c>
+      <c r="BQ9" t="s">
+        <v>130</v>
+      </c>
+      <c r="BR9" t="s">
+        <v>156</v>
+      </c>
+      <c r="BS9" t="s">
+        <v>121</v>
+      </c>
+      <c r="BT9" t="s">
+        <v>135</v>
+      </c>
+      <c r="BU9" t="s">
+        <v>121</v>
+      </c>
+      <c r="BV9" t="s">
+        <v>105</v>
+      </c>
+      <c r="BW9" t="s">
+        <v>160</v>
+      </c>
+      <c r="BX9" t="s">
+        <v>161</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:76">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>162</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>82</v>
+      </c>
+      <c r="E10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" t="s">
+        <v>82</v>
+      </c>
+      <c r="H10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I10" t="s">
+        <v>82</v>
+      </c>
+      <c r="J10" t="s">
+        <v>82</v>
+      </c>
+      <c r="K10" t="s">
+        <v>118</v>
+      </c>
+      <c r="L10" t="s">
+        <v>118</v>
+      </c>
+      <c r="M10" t="s">
+        <v>118</v>
+      </c>
+      <c r="N10" t="s">
+        <v>118</v>
+      </c>
+      <c r="O10" t="s">
+        <v>118</v>
+      </c>
+      <c r="P10" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>118</v>
+      </c>
+      <c r="R10" t="s">
+        <v>118</v>
+      </c>
+      <c r="S10" t="s">
+        <v>118</v>
+      </c>
+      <c r="T10" t="s">
+        <v>118</v>
+      </c>
+      <c r="U10" t="s">
+        <v>107</v>
+      </c>
+      <c r="V10" t="s">
+        <v>118</v>
+      </c>
+      <c r="W10" t="s">
+        <v>118</v>
+      </c>
+      <c r="X10" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>118</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>118</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>118</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>118</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>118</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>118</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>118</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>118</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>118</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>107</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>118</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>118</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>118</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>118</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>118</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>118</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>118</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>120</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>120</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>120</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>120</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>120</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE10" t="s">
+        <v>90</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>90</v>
+      </c>
+      <c r="BG10" t="s">
+        <v>91</v>
+      </c>
+      <c r="BH10" t="s">
+        <v>91</v>
+      </c>
+      <c r="BI10" t="s">
+        <v>93</v>
+      </c>
+      <c r="BJ10" t="s">
+        <v>94</v>
+      </c>
+      <c r="BK10" t="s">
+        <v>92</v>
+      </c>
+      <c r="BL10" t="s">
+        <v>92</v>
+      </c>
+      <c r="BM10" t="s">
+        <v>93</v>
+      </c>
+      <c r="BN10" t="s">
+        <v>93</v>
+      </c>
+      <c r="BO10" t="s">
+        <v>93</v>
+      </c>
+      <c r="BP10" t="s">
+        <v>129</v>
+      </c>
+      <c r="BQ10" t="s">
+        <v>93</v>
+      </c>
+      <c r="BR10" t="s">
+        <v>93</v>
+      </c>
+      <c r="BS10" t="s">
+        <v>129</v>
+      </c>
+      <c r="BT10" t="s">
+        <v>129</v>
+      </c>
+      <c r="BU10" t="s">
+        <v>135</v>
+      </c>
+      <c r="BV10" t="s">
+        <v>135</v>
+      </c>
+      <c r="BW10" t="s">
+        <v>135</v>
+      </c>
+      <c r="BX10" t="s">
+        <v>163</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:76">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>164</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>165</v>
+      </c>
+      <c r="E11" t="s">
+        <v>127</v>
+      </c>
+      <c r="F11" t="s">
+        <v>127</v>
+      </c>
+      <c r="G11" t="s">
+        <v>166</v>
+      </c>
+      <c r="H11" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J11" t="s">
+        <v>83</v>
+      </c>
+      <c r="K11" t="s">
+        <v>107</v>
+      </c>
+      <c r="L11" t="s">
+        <v>107</v>
+      </c>
+      <c r="M11" t="s">
+        <v>107</v>
+      </c>
+      <c r="N11" t="s">
+        <v>107</v>
+      </c>
+      <c r="O11" t="s">
+        <v>107</v>
+      </c>
+      <c r="P11" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>107</v>
+      </c>
+      <c r="R11" t="s">
+        <v>107</v>
+      </c>
+      <c r="S11" t="s">
+        <v>107</v>
+      </c>
+      <c r="T11" t="s">
+        <v>107</v>
+      </c>
+      <c r="U11" t="s">
+        <v>92</v>
+      </c>
+      <c r="V11" t="s">
+        <v>107</v>
+      </c>
+      <c r="W11" t="s">
+        <v>107</v>
+      </c>
+      <c r="X11" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>86</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>101</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>89</v>
+      </c>
+      <c r="BE11" t="s">
+        <v>148</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>98</v>
+      </c>
+      <c r="BG11" t="s">
+        <v>122</v>
+      </c>
+      <c r="BH11" t="s">
+        <v>105</v>
+      </c>
+      <c r="BI11" t="s">
+        <v>167</v>
+      </c>
+      <c r="BJ11" t="s">
+        <v>122</v>
+      </c>
+      <c r="BK11" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL11" t="s">
+        <v>167</v>
+      </c>
+      <c r="BM11" t="s">
+        <v>105</v>
+      </c>
+      <c r="BN11" t="s">
+        <v>105</v>
+      </c>
+      <c r="BO11" t="s">
+        <v>105</v>
+      </c>
+      <c r="BP11" t="s">
+        <v>93</v>
+      </c>
+      <c r="BQ11" t="s">
+        <v>105</v>
+      </c>
+      <c r="BR11" t="s">
+        <v>94</v>
+      </c>
+      <c r="BS11" t="s">
+        <v>168</v>
+      </c>
+      <c r="BT11" t="s">
+        <v>168</v>
+      </c>
+      <c r="BU11" t="s">
+        <v>129</v>
+      </c>
+      <c r="BV11" t="s">
+        <v>147</v>
+      </c>
+      <c r="BW11" t="s">
+        <v>147</v>
+      </c>
+      <c r="BX11" t="s">
+        <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:76">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>169</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>126</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>80</v>
+      </c>
+      <c r="E12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" t="s">
+        <v>113</v>
+      </c>
+      <c r="H12" t="s">
+        <v>83</v>
+      </c>
+      <c r="I12" t="s">
+        <v>120</v>
+      </c>
+      <c r="J12" t="s">
+        <v>127</v>
+      </c>
+      <c r="K12" t="s">
+        <v>92</v>
+      </c>
+      <c r="L12" t="s">
+        <v>92</v>
+      </c>
+      <c r="M12" t="s">
+        <v>92</v>
+      </c>
+      <c r="N12" t="s">
+        <v>92</v>
+      </c>
+      <c r="O12" t="s">
+        <v>92</v>
+      </c>
+      <c r="P12" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>92</v>
+      </c>
+      <c r="R12" t="s">
+        <v>92</v>
+      </c>
+      <c r="S12" t="s">
+        <v>92</v>
+      </c>
+      <c r="T12" t="s">
+        <v>92</v>
+      </c>
+      <c r="U12" t="s">
+        <v>79</v>
+      </c>
+      <c r="V12" t="s">
+        <v>92</v>
+      </c>
+      <c r="W12" t="s">
+        <v>92</v>
+      </c>
+      <c r="X12" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>92</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>92</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>92</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>92</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>92</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>92</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>92</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>92</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>92</v>
+      </c>
+      <c r="AY12" t="s">
+        <v>146</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>168</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>102</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>96</v>
+      </c>
+      <c r="BC12" t="s">
+        <v>146</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>156</v>
+      </c>
+      <c r="BE12" t="s">
+        <v>122</v>
+      </c>
+      <c r="BF12" t="s">
+        <v>148</v>
+      </c>
+      <c r="BG12" t="s">
+        <v>105</v>
+      </c>
+      <c r="BH12" t="s">
+        <v>159</v>
+      </c>
+      <c r="BI12" t="s">
+        <v>105</v>
+      </c>
+      <c r="BJ12" t="s">
+        <v>105</v>
+      </c>
+      <c r="BK12" t="s">
+        <v>105</v>
+      </c>
+      <c r="BL12" t="s">
+        <v>105</v>
+      </c>
+      <c r="BM12" t="s">
+        <v>105</v>
+      </c>
+      <c r="BN12" t="s">
+        <v>105</v>
+      </c>
+      <c r="BO12" t="s">
+        <v>134</v>
+      </c>
+      <c r="BP12" t="s">
+        <v>105</v>
+      </c>
+      <c r="BQ12" t="s">
+        <v>105</v>
+      </c>
+      <c r="BR12" t="s">
+        <v>121</v>
+      </c>
+      <c r="BS12" t="s">
+        <v>90</v>
+      </c>
+      <c r="BT12" t="s">
+        <v>90</v>
+      </c>
+      <c r="BU12" t="s">
+        <v>168</v>
+      </c>
+      <c r="BV12" t="s">
+        <v>148</v>
+      </c>
+      <c r="BW12" t="s">
+        <v>170</v>
+      </c>
+      <c r="BX12" t="s">
+        <v>171</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:76">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>172</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>118</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>133</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>127</v>
+      </c>
+      <c r="E13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" t="s">
+        <v>104</v>
+      </c>
+      <c r="G13" t="s">
+        <v>113</v>
+      </c>
+      <c r="H13" t="s">
+        <v>78</v>
+      </c>
+      <c r="I13" t="s">
+        <v>120</v>
+      </c>
+      <c r="J13" t="s">
+        <v>119</v>
+      </c>
+      <c r="K13" t="s">
+        <v>79</v>
+      </c>
+      <c r="L13" t="s">
+        <v>79</v>
+      </c>
+      <c r="M13" t="s">
+        <v>79</v>
+      </c>
+      <c r="N13" t="s">
+        <v>79</v>
+      </c>
+      <c r="O13" t="s">
+        <v>79</v>
+      </c>
+      <c r="P13" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>79</v>
+      </c>
+      <c r="R13" t="s">
+        <v>79</v>
+      </c>
+      <c r="S13" t="s">
+        <v>79</v>
+      </c>
+      <c r="T13" t="s">
+        <v>79</v>
+      </c>
+      <c r="U13" t="s">
+        <v>153</v>
+      </c>
+      <c r="V13" t="s">
+        <v>79</v>
+      </c>
+      <c r="W13" t="s">
+        <v>79</v>
+      </c>
+      <c r="X13" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>153</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>79</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>79</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>79</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>79</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>79</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>79</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>158</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>125</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>147</v>
+      </c>
+      <c r="BB13" t="s">
+        <v>173</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>107</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>98</v>
+      </c>
+      <c r="BE13" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF13" t="s">
+        <v>165</v>
+      </c>
+      <c r="BG13" t="s">
+        <v>119</v>
+      </c>
+      <c r="BH13" t="s">
+        <v>120</v>
+      </c>
+      <c r="BI13" t="s">
+        <v>119</v>
+      </c>
+      <c r="BJ13" t="s">
+        <v>119</v>
+      </c>
+      <c r="BK13" t="s">
+        <v>119</v>
+      </c>
+      <c r="BL13" t="s">
+        <v>119</v>
+      </c>
+      <c r="BM13" t="s">
+        <v>119</v>
+      </c>
+      <c r="BN13" t="s">
+        <v>119</v>
+      </c>
+      <c r="BO13" t="s">
+        <v>80</v>
+      </c>
+      <c r="BP13" t="s">
+        <v>134</v>
+      </c>
+      <c r="BQ13" t="s">
+        <v>119</v>
+      </c>
+      <c r="BR13" t="s">
+        <v>77</v>
+      </c>
+      <c r="BS13" t="s">
+        <v>166</v>
+      </c>
+      <c r="BT13" t="s">
+        <v>166</v>
+      </c>
+      <c r="BU13" t="s">
+        <v>92</v>
+      </c>
+      <c r="BV13" t="s">
+        <v>174</v>
+      </c>
+      <c r="BW13" t="s">
+        <v>175</v>
+      </c>
+      <c r="BX13" t="s">
+        <v>159</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:76">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>176</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>177</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>178</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>179</v>
+      </c>
+      <c r="E14" t="s">
+        <v>180</v>
+      </c>
+      <c r="F14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G14" t="s">
+        <v>181</v>
+      </c>
+      <c r="H14" t="s">
+        <v>182</v>
+      </c>
+      <c r="I14" t="s">
+        <v>183</v>
+      </c>
+      <c r="J14" t="s">
+        <v>183</v>
+      </c>
+      <c r="K14" t="s">
+        <v>153</v>
+      </c>
+      <c r="L14" t="s">
+        <v>153</v>
+      </c>
+      <c r="M14" t="s">
+        <v>153</v>
+      </c>
+      <c r="N14" t="s">
+        <v>153</v>
+      </c>
+      <c r="O14" t="s">
+        <v>153</v>
+      </c>
+      <c r="P14" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>153</v>
+      </c>
+      <c r="R14" t="s">
+        <v>153</v>
+      </c>
+      <c r="S14" t="s">
+        <v>153</v>
+      </c>
+      <c r="T14" t="s">
+        <v>153</v>
+      </c>
+      <c r="U14" t="s">
+        <v>184</v>
+      </c>
+      <c r="V14" t="s">
+        <v>153</v>
+      </c>
+      <c r="W14" t="s">
+        <v>153</v>
+      </c>
+      <c r="X14" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>153</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>153</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>153</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>153</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>153</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>153</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>153</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>153</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>153</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>153</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>153</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>153</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>153</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>184</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>153</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>153</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>153</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>153</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>153</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>153</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>153</v>
+      </c>
+      <c r="AY14" t="s">
+        <v>154</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>138</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>185</v>
+      </c>
+      <c r="BB14" t="s">
+        <v>152</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>81</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>77</v>
+      </c>
+      <c r="BE14" t="s">
+        <v>186</v>
+      </c>
+      <c r="BF14" t="s">
+        <v>186</v>
+      </c>
+      <c r="BG14" t="s">
+        <v>186</v>
+      </c>
+      <c r="BH14" t="s">
+        <v>186</v>
+      </c>
+      <c r="BI14" t="s">
+        <v>186</v>
+      </c>
+      <c r="BJ14" t="s">
+        <v>186</v>
+      </c>
+      <c r="BK14" t="s">
+        <v>186</v>
+      </c>
+      <c r="BL14" t="s">
+        <v>186</v>
+      </c>
+      <c r="BM14" t="s">
+        <v>186</v>
+      </c>
+      <c r="BN14" t="s">
+        <v>186</v>
+      </c>
+      <c r="BO14" t="s">
+        <v>186</v>
+      </c>
+      <c r="BP14" t="s">
+        <v>80</v>
+      </c>
+      <c r="BQ14" t="s">
+        <v>186</v>
+      </c>
+      <c r="BR14" t="s">
+        <v>186</v>
+      </c>
+      <c r="BS14" t="s">
+        <v>186</v>
+      </c>
+      <c r="BT14" t="s">
+        <v>186</v>
+      </c>
+      <c r="BU14" t="s">
+        <v>187</v>
+      </c>
+      <c r="BV14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BW14" t="s">
+        <v>135</v>
+      </c>
+      <c r="BX14" t="s">
+        <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:76">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>188</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>189</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>190</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>190</v>
+      </c>
+      <c r="E15" t="s">
+        <v>191</v>
+      </c>
+      <c r="F15" t="s">
+        <v>191</v>
+      </c>
+      <c r="G15" t="s">
+        <v>192</v>
+      </c>
+      <c r="H15" t="s">
+        <v>193</v>
+      </c>
+      <c r="I15" t="s">
+        <v>193</v>
+      </c>
+      <c r="J15" t="s">
+        <v>193</v>
+      </c>
+      <c r="K15" t="s">
+        <v>184</v>
+      </c>
+      <c r="L15" t="s">
+        <v>184</v>
+      </c>
+      <c r="M15" t="s">
+        <v>184</v>
+      </c>
+      <c r="N15" t="s">
+        <v>184</v>
+      </c>
+      <c r="O15" t="s">
+        <v>184</v>
+      </c>
+      <c r="P15" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>184</v>
+      </c>
+      <c r="R15" t="s">
+        <v>184</v>
+      </c>
+      <c r="S15" t="s">
+        <v>184</v>
+      </c>
+      <c r="T15" t="s">
+        <v>184</v>
+      </c>
+      <c r="U15" t="s">
+        <v>77</v>
+      </c>
+      <c r="V15" t="s">
+        <v>184</v>
+      </c>
+      <c r="W15" t="s">
+        <v>184</v>
+      </c>
+      <c r="X15" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>184</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>184</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>184</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>184</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>184</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>184</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>184</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>184</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>184</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>184</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>184</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>184</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>184</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>184</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>184</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>184</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>184</v>
+      </c>
+      <c r="AY15" t="s">
+        <v>194</v>
+      </c>
+      <c r="AZ15" t="s">
+        <v>195</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>195</v>
+      </c>
+      <c r="BB15" t="s">
+        <v>195</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>196</v>
+      </c>
+      <c r="BD15" t="s">
+        <v>197</v>
+      </c>
+      <c r="BE15" t="s">
+        <v>125</v>
+      </c>
+      <c r="BF15" t="s">
+        <v>158</v>
+      </c>
+      <c r="BG15" t="s">
+        <v>91</v>
+      </c>
+      <c r="BH15" t="s">
+        <v>155</v>
+      </c>
+      <c r="BI15" t="s">
+        <v>91</v>
+      </c>
+      <c r="BJ15" t="s">
+        <v>91</v>
+      </c>
+      <c r="BK15" t="s">
+        <v>91</v>
+      </c>
+      <c r="BL15" t="s">
+        <v>91</v>
+      </c>
+      <c r="BM15" t="s">
+        <v>91</v>
+      </c>
+      <c r="BN15" t="s">
+        <v>91</v>
+      </c>
+      <c r="BO15" t="s">
+        <v>168</v>
+      </c>
+      <c r="BP15" t="s">
+        <v>186</v>
+      </c>
+      <c r="BQ15" t="s">
+        <v>91</v>
+      </c>
+      <c r="BR15" t="s">
+        <v>147</v>
+      </c>
+      <c r="BS15" t="s">
+        <v>135</v>
+      </c>
+      <c r="BT15" t="s">
+        <v>96</v>
+      </c>
+      <c r="BU15" t="s">
+        <v>186</v>
+      </c>
+      <c r="BV15" t="s">
+        <v>198</v>
+      </c>
+      <c r="BW15" t="s">
+        <v>186</v>
+      </c>
+      <c r="BX15" t="s">
+        <v>199</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:76">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>165</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>201</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
+        <v>103</v>
+      </c>
+      <c r="E16" t="s">
+        <v>127</v>
+      </c>
+      <c r="F16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" t="s">
+        <v>202</v>
+      </c>
+      <c r="H16" t="s">
+        <v>203</v>
+      </c>
+      <c r="I16" t="s">
+        <v>201</v>
+      </c>
+      <c r="J16" t="s">
+        <v>115</v>
+      </c>
+      <c r="K16" t="s">
+        <v>77</v>
+      </c>
+      <c r="L16" t="s">
+        <v>77</v>
+      </c>
+      <c r="M16" t="s">
+        <v>77</v>
+      </c>
+      <c r="N16" t="s">
+        <v>77</v>
+      </c>
+      <c r="O16" t="s">
+        <v>77</v>
+      </c>
+      <c r="P16" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>77</v>
+      </c>
+      <c r="R16" t="s">
+        <v>77</v>
+      </c>
+      <c r="S16" t="s">
+        <v>77</v>
+      </c>
+      <c r="T16" t="s">
+        <v>77</v>
+      </c>
+      <c r="U16" t="s">
+        <v>204</v>
+      </c>
+      <c r="V16" t="s">
+        <v>77</v>
+      </c>
+      <c r="W16" t="s">
+        <v>77</v>
+      </c>
+      <c r="X16" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>204</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>204</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>77</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>77</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>77</v>
+      </c>
+      <c r="AY16" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ16" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>100</v>
+      </c>
+      <c r="BB16" t="s">
+        <v>126</v>
+      </c>
+      <c r="BC16" t="s">
+        <v>100</v>
+      </c>
+      <c r="BD16" t="s">
+        <v>107</v>
+      </c>
+      <c r="BE16" t="s">
+        <v>90</v>
+      </c>
+      <c r="BF16" t="s">
+        <v>168</v>
+      </c>
+      <c r="BG16" t="s">
+        <v>93</v>
+      </c>
+      <c r="BH16" t="s">
+        <v>94</v>
+      </c>
+      <c r="BI16" t="s">
+        <v>121</v>
+      </c>
+      <c r="BJ16" t="s">
+        <v>94</v>
+      </c>
+      <c r="BK16" t="s">
+        <v>94</v>
+      </c>
+      <c r="BL16" t="s">
+        <v>93</v>
+      </c>
+      <c r="BM16" t="s">
+        <v>93</v>
+      </c>
+      <c r="BN16" t="s">
+        <v>93</v>
+      </c>
+      <c r="BO16" t="s">
+        <v>121</v>
+      </c>
+      <c r="BP16" t="s">
+        <v>168</v>
+      </c>
+      <c r="BQ16" t="s">
+        <v>92</v>
+      </c>
+      <c r="BR16" t="s">
+        <v>125</v>
+      </c>
+      <c r="BS16" t="s">
+        <v>146</v>
+      </c>
+      <c r="BT16" t="s">
+        <v>146</v>
+      </c>
+      <c r="BU16" t="s">
+        <v>96</v>
+      </c>
+      <c r="BV16" t="s">
+        <v>128</v>
+      </c>
+      <c r="BW16" t="s">
+        <v>108</v>
+      </c>
+      <c r="BX16" t="s">
+        <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:76">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>205</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>165</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>145</v>
+      </c>
+      <c r="E17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" t="s">
+        <v>165</v>
+      </c>
+      <c r="G17" t="s">
+        <v>114</v>
+      </c>
+      <c r="H17" t="s">
+        <v>82</v>
+      </c>
+      <c r="I17" t="s">
+        <v>77</v>
+      </c>
+      <c r="J17" t="s">
+        <v>103</v>
+      </c>
+      <c r="K17" t="s">
+        <v>204</v>
+      </c>
+      <c r="L17" t="s">
+        <v>204</v>
+      </c>
+      <c r="M17" t="s">
+        <v>204</v>
+      </c>
+      <c r="N17" t="s">
+        <v>204</v>
+      </c>
+      <c r="O17" t="s">
+        <v>204</v>
+      </c>
+      <c r="P17" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>204</v>
+      </c>
+      <c r="R17" t="s">
+        <v>204</v>
+      </c>
+      <c r="S17" t="s">
+        <v>204</v>
+      </c>
+      <c r="T17" t="s">
+        <v>204</v>
+      </c>
+      <c r="U17" t="s">
+        <v>104</v>
+      </c>
+      <c r="V17" t="s">
+        <v>204</v>
+      </c>
+      <c r="W17" t="s">
+        <v>204</v>
+      </c>
+      <c r="X17" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>204</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>204</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>204</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>204</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>204</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>204</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>204</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>204</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>204</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>204</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>204</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>204</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>204</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>204</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>104</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>204</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>204</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>204</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>204</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>204</v>
+      </c>
+      <c r="AW17" t="s">
+        <v>204</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>204</v>
+      </c>
+      <c r="AY17" t="s">
+        <v>173</v>
+      </c>
+      <c r="AZ17" t="s">
+        <v>135</v>
+      </c>
+      <c r="BA17" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB17" t="s">
+        <v>101</v>
+      </c>
+      <c r="BC17" t="s">
+        <v>89</v>
+      </c>
+      <c r="BD17" t="s">
+        <v>168</v>
+      </c>
+      <c r="BE17" t="s">
+        <v>105</v>
+      </c>
+      <c r="BF17" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG17" t="s">
+        <v>159</v>
+      </c>
+      <c r="BH17" t="s">
+        <v>206</v>
+      </c>
+      <c r="BI17" t="s">
+        <v>130</v>
+      </c>
+      <c r="BJ17" t="s">
+        <v>159</v>
+      </c>
+      <c r="BK17" t="s">
+        <v>159</v>
+      </c>
+      <c r="BL17" t="s">
+        <v>130</v>
+      </c>
+      <c r="BM17" t="s">
+        <v>206</v>
+      </c>
+      <c r="BN17" t="s">
+        <v>206</v>
+      </c>
+      <c r="BO17" t="s">
+        <v>206</v>
+      </c>
+      <c r="BP17" t="s">
+        <v>121</v>
+      </c>
+      <c r="BQ17" t="s">
+        <v>206</v>
+      </c>
+      <c r="BR17" t="s">
+        <v>98</v>
+      </c>
+      <c r="BS17" t="s">
+        <v>121</v>
+      </c>
+      <c r="BT17" t="s">
+        <v>121</v>
+      </c>
+      <c r="BU17" t="s">
+        <v>158</v>
+      </c>
+      <c r="BV17" t="s">
+        <v>148</v>
+      </c>
+      <c r="BW17" t="s">
+        <v>163</v>
+      </c>
+      <c r="BX17" t="s">
+        <v>155</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:76">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>207</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>133</v>
       </c>
       <c r="D18" t="s">
-        <v>4</v>
+        <v>76</v>
+      </c>
+      <c r="E18" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" t="s">
+        <v>126</v>
+      </c>
+      <c r="G18" t="s">
+        <v>137</v>
+      </c>
+      <c r="H18" t="s">
+        <v>144</v>
+      </c>
+      <c r="I18" t="s">
+        <v>79</v>
+      </c>
+      <c r="J18" t="s">
+        <v>126</v>
+      </c>
+      <c r="K18" t="s">
+        <v>104</v>
+      </c>
+      <c r="L18" t="s">
+        <v>104</v>
+      </c>
+      <c r="M18" t="s">
+        <v>104</v>
+      </c>
+      <c r="N18" t="s">
+        <v>104</v>
+      </c>
+      <c r="O18" t="s">
+        <v>104</v>
+      </c>
+      <c r="P18" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>104</v>
+      </c>
+      <c r="R18" t="s">
+        <v>104</v>
+      </c>
+      <c r="S18" t="s">
+        <v>104</v>
+      </c>
+      <c r="T18" t="s">
+        <v>104</v>
+      </c>
+      <c r="U18" t="s">
+        <v>128</v>
+      </c>
+      <c r="V18" t="s">
+        <v>104</v>
+      </c>
+      <c r="W18" t="s">
+        <v>104</v>
+      </c>
+      <c r="X18" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>104</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>104</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>104</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>128</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>104</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV18" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW18" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY18" t="s">
+        <v>128</v>
+      </c>
+      <c r="AZ18" t="s">
+        <v>155</v>
+      </c>
+      <c r="BA18" t="s">
+        <v>107</v>
+      </c>
+      <c r="BB18" t="s">
+        <v>158</v>
+      </c>
+      <c r="BC18" t="s">
+        <v>102</v>
+      </c>
+      <c r="BD18" t="s">
+        <v>148</v>
+      </c>
+      <c r="BE18" t="s">
+        <v>105</v>
+      </c>
+      <c r="BF18" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG18" t="s">
+        <v>159</v>
+      </c>
+      <c r="BH18" t="s">
+        <v>130</v>
+      </c>
+      <c r="BI18" t="s">
+        <v>159</v>
+      </c>
+      <c r="BJ18" t="s">
+        <v>159</v>
+      </c>
+      <c r="BK18" t="s">
+        <v>159</v>
+      </c>
+      <c r="BL18" t="s">
+        <v>130</v>
+      </c>
+      <c r="BM18" t="s">
+        <v>130</v>
+      </c>
+      <c r="BN18" t="s">
+        <v>130</v>
+      </c>
+      <c r="BO18" t="s">
+        <v>130</v>
+      </c>
+      <c r="BP18" t="s">
+        <v>206</v>
+      </c>
+      <c r="BQ18" t="s">
+        <v>130</v>
+      </c>
+      <c r="BR18" t="s">
+        <v>148</v>
+      </c>
+      <c r="BS18" t="s">
+        <v>94</v>
+      </c>
+      <c r="BT18" t="s">
+        <v>94</v>
+      </c>
+      <c r="BU18" t="s">
+        <v>93</v>
+      </c>
+      <c r="BV18" t="s">
+        <v>163</v>
+      </c>
+      <c r="BW18" t="s">
+        <v>124</v>
+      </c>
+      <c r="BX18" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:76">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>208</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>144</v>
       </c>
       <c r="D19" t="s">
-        <v>53</v>
+        <v>144</v>
+      </c>
+      <c r="E19" t="s">
+        <v>173</v>
+      </c>
+      <c r="F19" t="s">
+        <v>116</v>
+      </c>
+      <c r="G19" t="s">
+        <v>166</v>
+      </c>
+      <c r="H19" t="s">
+        <v>80</v>
+      </c>
+      <c r="I19" t="s">
+        <v>133</v>
+      </c>
+      <c r="J19" t="s">
+        <v>118</v>
+      </c>
+      <c r="K19" t="s">
+        <v>128</v>
+      </c>
+      <c r="L19" t="s">
+        <v>128</v>
+      </c>
+      <c r="M19" t="s">
+        <v>128</v>
+      </c>
+      <c r="N19" t="s">
+        <v>128</v>
+      </c>
+      <c r="O19" t="s">
+        <v>128</v>
+      </c>
+      <c r="P19" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>128</v>
+      </c>
+      <c r="R19" t="s">
+        <v>128</v>
+      </c>
+      <c r="S19" t="s">
+        <v>128</v>
+      </c>
+      <c r="T19" t="s">
+        <v>128</v>
+      </c>
+      <c r="U19" t="s">
+        <v>165</v>
+      </c>
+      <c r="V19" t="s">
+        <v>128</v>
+      </c>
+      <c r="W19" t="s">
+        <v>128</v>
+      </c>
+      <c r="X19" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>165</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>128</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>128</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>128</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>128</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>128</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>165</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>128</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>128</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>128</v>
+      </c>
+      <c r="AU19" t="s">
+        <v>128</v>
+      </c>
+      <c r="AV19" t="s">
+        <v>128</v>
+      </c>
+      <c r="AW19" t="s">
+        <v>128</v>
+      </c>
+      <c r="AX19" t="s">
+        <v>128</v>
+      </c>
+      <c r="AY19" t="s">
+        <v>125</v>
+      </c>
+      <c r="AZ19" t="s">
+        <v>125</v>
+      </c>
+      <c r="BA19" t="s">
+        <v>106</v>
+      </c>
+      <c r="BB19" t="s">
+        <v>147</v>
+      </c>
+      <c r="BC19" t="s">
+        <v>147</v>
+      </c>
+      <c r="BD19" t="s">
+        <v>98</v>
+      </c>
+      <c r="BE19" t="s">
+        <v>118</v>
+      </c>
+      <c r="BF19" t="s">
+        <v>91</v>
+      </c>
+      <c r="BG19" t="s">
+        <v>91</v>
+      </c>
+      <c r="BH19" t="s">
+        <v>129</v>
+      </c>
+      <c r="BI19" t="s">
+        <v>129</v>
+      </c>
+      <c r="BJ19" t="s">
+        <v>155</v>
+      </c>
+      <c r="BK19" t="s">
+        <v>155</v>
+      </c>
+      <c r="BL19" t="s">
+        <v>91</v>
+      </c>
+      <c r="BM19" t="s">
+        <v>91</v>
+      </c>
+      <c r="BN19" t="s">
+        <v>91</v>
+      </c>
+      <c r="BO19" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP19" t="s">
+        <v>206</v>
+      </c>
+      <c r="BQ19" t="s">
+        <v>91</v>
+      </c>
+      <c r="BR19" t="s">
+        <v>91</v>
+      </c>
+      <c r="BS19" t="s">
+        <v>95</v>
+      </c>
+      <c r="BT19" t="s">
+        <v>95</v>
+      </c>
+      <c r="BU19" t="s">
+        <v>93</v>
+      </c>
+      <c r="BV19" t="s">
+        <v>105</v>
+      </c>
+      <c r="BW19" t="s">
+        <v>111</v>
+      </c>
+      <c r="BX19" t="s">
+        <v>124</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:76">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>209</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>145</v>
       </c>
       <c r="D20" t="s">
-        <v>49</v>
+        <v>145</v>
+      </c>
+      <c r="E20" t="s">
+        <v>120</v>
+      </c>
+      <c r="F20" t="s">
+        <v>120</v>
+      </c>
+      <c r="G20" t="s">
+        <v>133</v>
+      </c>
+      <c r="H20" t="s">
+        <v>114</v>
+      </c>
+      <c r="I20" t="s">
+        <v>187</v>
+      </c>
+      <c r="J20" t="s">
+        <v>187</v>
+      </c>
+      <c r="K20" t="s">
+        <v>165</v>
+      </c>
+      <c r="L20" t="s">
+        <v>165</v>
+      </c>
+      <c r="M20" t="s">
+        <v>165</v>
+      </c>
+      <c r="N20" t="s">
+        <v>165</v>
+      </c>
+      <c r="O20" t="s">
+        <v>165</v>
+      </c>
+      <c r="P20" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>165</v>
+      </c>
+      <c r="R20" t="s">
+        <v>165</v>
+      </c>
+      <c r="S20" t="s">
+        <v>165</v>
+      </c>
+      <c r="T20" t="s">
+        <v>165</v>
+      </c>
+      <c r="U20" t="s">
+        <v>100</v>
+      </c>
+      <c r="V20" t="s">
+        <v>165</v>
+      </c>
+      <c r="W20" t="s">
+        <v>165</v>
+      </c>
+      <c r="X20" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>165</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>165</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>165</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>165</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>165</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>165</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>165</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>165</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>165</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>165</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>165</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>165</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>100</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>165</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>165</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>165</v>
+      </c>
+      <c r="AU20" t="s">
+        <v>165</v>
+      </c>
+      <c r="AV20" t="s">
+        <v>165</v>
+      </c>
+      <c r="AW20" t="s">
+        <v>165</v>
+      </c>
+      <c r="AX20" t="s">
+        <v>165</v>
+      </c>
+      <c r="AY20" t="s">
+        <v>100</v>
+      </c>
+      <c r="AZ20" t="s">
+        <v>100</v>
+      </c>
+      <c r="BA20" t="s">
+        <v>100</v>
+      </c>
+      <c r="BB20" t="s">
+        <v>100</v>
+      </c>
+      <c r="BC20" t="s">
+        <v>104</v>
+      </c>
+      <c r="BD20" t="s">
+        <v>118</v>
+      </c>
+      <c r="BE20" t="s">
+        <v>133</v>
+      </c>
+      <c r="BF20" t="s">
+        <v>158</v>
+      </c>
+      <c r="BG20" t="s">
+        <v>158</v>
+      </c>
+      <c r="BH20" t="s">
+        <v>158</v>
+      </c>
+      <c r="BI20" t="s">
+        <v>91</v>
+      </c>
+      <c r="BJ20" t="s">
+        <v>91</v>
+      </c>
+      <c r="BK20" t="s">
+        <v>91</v>
+      </c>
+      <c r="BL20" t="s">
+        <v>129</v>
+      </c>
+      <c r="BM20" t="s">
+        <v>129</v>
+      </c>
+      <c r="BN20" t="s">
+        <v>129</v>
+      </c>
+      <c r="BO20" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP20" t="s">
+        <v>91</v>
+      </c>
+      <c r="BQ20" t="s">
+        <v>91</v>
+      </c>
+      <c r="BR20" t="s">
+        <v>147</v>
+      </c>
+      <c r="BS20" t="s">
+        <v>147</v>
+      </c>
+      <c r="BT20" t="s">
+        <v>147</v>
+      </c>
+      <c r="BU20" t="s">
+        <v>95</v>
+      </c>
+      <c r="BV20" t="s">
+        <v>95</v>
+      </c>
+      <c r="BW20" t="s">
+        <v>146</v>
+      </c>
+      <c r="BX20" t="s">
+        <v>163</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:76">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>210</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>187</v>
+      </c>
+      <c r="E21" t="s">
+        <v>187</v>
+      </c>
+      <c r="F21" t="s">
+        <v>187</v>
+      </c>
+      <c r="G21" t="s">
+        <v>82</v>
+      </c>
+      <c r="H21" t="s">
+        <v>82</v>
+      </c>
+      <c r="I21" t="s">
+        <v>82</v>
+      </c>
+      <c r="J21" t="s">
+        <v>103</v>
+      </c>
+      <c r="K21" t="s">
+        <v>100</v>
+      </c>
+      <c r="L21" t="s">
+        <v>100</v>
+      </c>
+      <c r="M21" t="s">
+        <v>100</v>
+      </c>
+      <c r="N21" t="s">
+        <v>100</v>
+      </c>
+      <c r="O21" t="s">
+        <v>100</v>
+      </c>
+      <c r="P21" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>100</v>
+      </c>
+      <c r="R21" t="s">
+        <v>100</v>
+      </c>
+      <c r="S21" t="s">
+        <v>100</v>
+      </c>
+      <c r="T21" t="s">
+        <v>100</v>
+      </c>
+      <c r="U21" t="s">
+        <v>83</v>
+      </c>
+      <c r="V21" t="s">
+        <v>100</v>
+      </c>
+      <c r="W21" t="s">
+        <v>100</v>
+      </c>
+      <c r="X21" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>100</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>100</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>100</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>100</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>100</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>115</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>100</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>100</v>
+      </c>
+      <c r="AT21" t="s">
+        <v>100</v>
+      </c>
+      <c r="AU21" t="s">
+        <v>100</v>
+      </c>
+      <c r="AV21" t="s">
+        <v>100</v>
+      </c>
+      <c r="AW21" t="s">
+        <v>100</v>
+      </c>
+      <c r="AX21" t="s">
+        <v>100</v>
+      </c>
+      <c r="AY21" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ21" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA21" t="s">
+        <v>116</v>
+      </c>
+      <c r="BB21" t="s">
+        <v>116</v>
+      </c>
+      <c r="BC21" t="s">
+        <v>116</v>
+      </c>
+      <c r="BD21" t="s">
+        <v>133</v>
+      </c>
+      <c r="BE21" t="s">
+        <v>128</v>
+      </c>
+      <c r="BF21" t="s">
+        <v>107</v>
+      </c>
+      <c r="BG21" t="s">
+        <v>107</v>
+      </c>
+      <c r="BH21" t="s">
+        <v>91</v>
+      </c>
+      <c r="BI21" t="s">
+        <v>91</v>
+      </c>
+      <c r="BJ21" t="s">
+        <v>91</v>
+      </c>
+      <c r="BK21" t="s">
+        <v>91</v>
+      </c>
+      <c r="BL21" t="s">
+        <v>91</v>
+      </c>
+      <c r="BM21" t="s">
+        <v>91</v>
+      </c>
+      <c r="BN21" t="s">
+        <v>129</v>
+      </c>
+      <c r="BO21" t="s">
+        <v>129</v>
+      </c>
+      <c r="BP21" t="s">
+        <v>91</v>
+      </c>
+      <c r="BQ21" t="s">
+        <v>100</v>
+      </c>
+      <c r="BR21" t="s">
+        <v>127</v>
+      </c>
+      <c r="BS21" t="s">
+        <v>96</v>
+      </c>
+      <c r="BT21" t="s">
+        <v>96</v>
+      </c>
+      <c r="BU21" t="s">
+        <v>147</v>
+      </c>
+      <c r="BV21" t="s">
+        <v>147</v>
+      </c>
+      <c r="BW21" t="s">
+        <v>155</v>
+      </c>
+      <c r="BX21" t="s">
+        <v>155</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:76">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>211</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>145</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>187</v>
       </c>
       <c r="D22" t="s">
-        <v>46</v>
+        <v>201</v>
+      </c>
+      <c r="E22" t="s">
+        <v>120</v>
+      </c>
+      <c r="F22" t="s">
+        <v>113</v>
+      </c>
+      <c r="G22" t="s">
+        <v>212</v>
+      </c>
+      <c r="H22" t="s">
+        <v>154</v>
+      </c>
+      <c r="I22" t="s">
+        <v>138</v>
+      </c>
+      <c r="J22" t="s">
+        <v>142</v>
+      </c>
+      <c r="K22" t="s">
+        <v>83</v>
+      </c>
+      <c r="L22" t="s">
+        <v>83</v>
+      </c>
+      <c r="M22" t="s">
+        <v>83</v>
+      </c>
+      <c r="N22" t="s">
+        <v>83</v>
+      </c>
+      <c r="O22" t="s">
+        <v>83</v>
+      </c>
+      <c r="P22" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>83</v>
+      </c>
+      <c r="R22" t="s">
+        <v>83</v>
+      </c>
+      <c r="S22" t="s">
+        <v>83</v>
+      </c>
+      <c r="T22" t="s">
+        <v>83</v>
+      </c>
+      <c r="U22" t="s">
+        <v>213</v>
+      </c>
+      <c r="V22" t="s">
+        <v>83</v>
+      </c>
+      <c r="W22" t="s">
+        <v>83</v>
+      </c>
+      <c r="X22" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>213</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>115</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>115</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>115</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>213</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>115</v>
+      </c>
+      <c r="AS22" t="s">
+        <v>115</v>
+      </c>
+      <c r="AT22" t="s">
+        <v>115</v>
+      </c>
+      <c r="AU22" t="s">
+        <v>115</v>
+      </c>
+      <c r="AV22" t="s">
+        <v>115</v>
+      </c>
+      <c r="AW22" t="s">
+        <v>115</v>
+      </c>
+      <c r="AX22" t="s">
+        <v>115</v>
+      </c>
+      <c r="AY22" t="s">
+        <v>115</v>
+      </c>
+      <c r="AZ22" t="s">
+        <v>165</v>
+      </c>
+      <c r="BA22" t="s">
+        <v>137</v>
+      </c>
+      <c r="BB22" t="s">
+        <v>166</v>
+      </c>
+      <c r="BC22" t="s">
+        <v>203</v>
+      </c>
+      <c r="BD22" t="s">
+        <v>137</v>
+      </c>
+      <c r="BE22" t="s">
+        <v>118</v>
+      </c>
+      <c r="BF22" t="s">
+        <v>79</v>
+      </c>
+      <c r="BG22" t="s">
+        <v>100</v>
+      </c>
+      <c r="BH22" t="s">
+        <v>85</v>
+      </c>
+      <c r="BI22" t="s">
+        <v>88</v>
+      </c>
+      <c r="BJ22" t="s">
+        <v>100</v>
+      </c>
+      <c r="BK22" t="s">
+        <v>100</v>
+      </c>
+      <c r="BL22" t="s">
+        <v>100</v>
+      </c>
+      <c r="BM22" t="s">
+        <v>100</v>
+      </c>
+      <c r="BN22" t="s">
+        <v>100</v>
+      </c>
+      <c r="BO22" t="s">
+        <v>88</v>
+      </c>
+      <c r="BP22" t="s">
+        <v>129</v>
+      </c>
+      <c r="BQ22" t="s">
+        <v>83</v>
+      </c>
+      <c r="BR22" t="s">
+        <v>187</v>
+      </c>
+      <c r="BS22" t="s">
+        <v>120</v>
+      </c>
+      <c r="BT22" t="s">
+        <v>120</v>
+      </c>
+      <c r="BU22" t="s">
+        <v>102</v>
+      </c>
+      <c r="BV22" t="s">
+        <v>155</v>
+      </c>
+      <c r="BW22" t="s">
+        <v>105</v>
+      </c>
+      <c r="BX22" t="s">
+        <v>158</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:76">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>214</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>166</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
+        <v>152</v>
       </c>
       <c r="D23" t="s">
-        <v>62</v>
+        <v>215</v>
+      </c>
+      <c r="E23" t="s">
+        <v>138</v>
+      </c>
+      <c r="F23" t="s">
+        <v>140</v>
+      </c>
+      <c r="G23" t="s">
+        <v>216</v>
+      </c>
+      <c r="H23" t="s">
+        <v>202</v>
+      </c>
+      <c r="I23" t="s">
+        <v>152</v>
+      </c>
+      <c r="J23" t="s">
+        <v>202</v>
+      </c>
+      <c r="K23" t="s">
+        <v>213</v>
+      </c>
+      <c r="L23" t="s">
+        <v>213</v>
+      </c>
+      <c r="M23" t="s">
+        <v>213</v>
+      </c>
+      <c r="N23" t="s">
+        <v>213</v>
+      </c>
+      <c r="O23" t="s">
+        <v>213</v>
+      </c>
+      <c r="P23" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>213</v>
+      </c>
+      <c r="R23" t="s">
+        <v>213</v>
+      </c>
+      <c r="S23" t="s">
+        <v>213</v>
+      </c>
+      <c r="T23" t="s">
+        <v>213</v>
+      </c>
+      <c r="U23" t="s">
+        <v>204</v>
+      </c>
+      <c r="V23" t="s">
+        <v>213</v>
+      </c>
+      <c r="W23" t="s">
+        <v>213</v>
+      </c>
+      <c r="X23" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>213</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>213</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>213</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>204</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>213</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>213</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>213</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>213</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>213</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>213</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>213</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>213</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>213</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>213</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>213</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>204</v>
+      </c>
+      <c r="AR23" t="s">
+        <v>213</v>
+      </c>
+      <c r="AS23" t="s">
+        <v>213</v>
+      </c>
+      <c r="AT23" t="s">
+        <v>213</v>
+      </c>
+      <c r="AU23" t="s">
+        <v>213</v>
+      </c>
+      <c r="AV23" t="s">
+        <v>213</v>
+      </c>
+      <c r="AW23" t="s">
+        <v>213</v>
+      </c>
+      <c r="AX23" t="s">
+        <v>213</v>
+      </c>
+      <c r="AY23" t="s">
+        <v>140</v>
+      </c>
+      <c r="AZ23" t="s">
+        <v>142</v>
+      </c>
+      <c r="BA23" t="s">
+        <v>217</v>
+      </c>
+      <c r="BB23" t="s">
+        <v>114</v>
+      </c>
+      <c r="BC23" t="s">
+        <v>152</v>
+      </c>
+      <c r="BD23" t="s">
+        <v>115</v>
+      </c>
+      <c r="BE23" t="s">
+        <v>165</v>
+      </c>
+      <c r="BF23" t="s">
+        <v>77</v>
+      </c>
+      <c r="BG23" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH23" t="s">
+        <v>119</v>
+      </c>
+      <c r="BI23" t="s">
+        <v>78</v>
+      </c>
+      <c r="BJ23" t="s">
+        <v>83</v>
+      </c>
+      <c r="BK23" t="s">
+        <v>83</v>
+      </c>
+      <c r="BL23" t="s">
+        <v>83</v>
+      </c>
+      <c r="BM23" t="s">
+        <v>83</v>
+      </c>
+      <c r="BN23" t="s">
+        <v>83</v>
+      </c>
+      <c r="BO23" t="s">
+        <v>78</v>
+      </c>
+      <c r="BP23" t="s">
+        <v>88</v>
+      </c>
+      <c r="BQ23" t="s">
+        <v>135</v>
+      </c>
+      <c r="BR23" t="s">
+        <v>88</v>
+      </c>
+      <c r="BS23" t="s">
+        <v>201</v>
+      </c>
+      <c r="BT23" t="s">
+        <v>201</v>
+      </c>
+      <c r="BU23" t="s">
+        <v>120</v>
+      </c>
+      <c r="BV23" t="s">
+        <v>120</v>
+      </c>
+      <c r="BW23" t="s">
+        <v>95</v>
+      </c>
+      <c r="BX23" t="s">
+        <v>129</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:76">
       <c r="A24" t="s">
-        <v>63</v>
+        <v>218</v>
       </c>
       <c r="B24" t="s">
-        <v>64</v>
+        <v>153</v>
       </c>
       <c r="C24" t="s">
-        <v>65</v>
+        <v>183</v>
       </c>
       <c r="D24" t="s">
-        <v>41</v>
+        <v>179</v>
+      </c>
+      <c r="E24" t="s">
+        <v>141</v>
+      </c>
+      <c r="F24" t="s">
+        <v>177</v>
+      </c>
+      <c r="G24" t="s">
+        <v>219</v>
+      </c>
+      <c r="H24" t="s">
+        <v>216</v>
+      </c>
+      <c r="I24" t="s">
+        <v>183</v>
+      </c>
+      <c r="J24" t="s">
+        <v>216</v>
+      </c>
+      <c r="K24" t="s">
+        <v>204</v>
+      </c>
+      <c r="L24" t="s">
+        <v>204</v>
+      </c>
+      <c r="M24" t="s">
+        <v>204</v>
+      </c>
+      <c r="N24" t="s">
+        <v>204</v>
+      </c>
+      <c r="O24" t="s">
+        <v>204</v>
+      </c>
+      <c r="P24" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>204</v>
+      </c>
+      <c r="R24" t="s">
+        <v>204</v>
+      </c>
+      <c r="S24" t="s">
+        <v>204</v>
+      </c>
+      <c r="T24" t="s">
+        <v>204</v>
+      </c>
+      <c r="U24" t="s">
+        <v>100</v>
+      </c>
+      <c r="V24" t="s">
+        <v>204</v>
+      </c>
+      <c r="W24" t="s">
+        <v>204</v>
+      </c>
+      <c r="X24" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>204</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>204</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>204</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>204</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>204</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>204</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>204</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>204</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>204</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>204</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>204</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>204</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>204</v>
+      </c>
+      <c r="AP24" t="s">
+        <v>204</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>100</v>
+      </c>
+      <c r="AR24" t="s">
+        <v>204</v>
+      </c>
+      <c r="AS24" t="s">
+        <v>204</v>
+      </c>
+      <c r="AT24" t="s">
+        <v>204</v>
+      </c>
+      <c r="AU24" t="s">
+        <v>204</v>
+      </c>
+      <c r="AV24" t="s">
+        <v>204</v>
+      </c>
+      <c r="AW24" t="s">
+        <v>204</v>
+      </c>
+      <c r="AX24" t="s">
+        <v>204</v>
+      </c>
+      <c r="AY24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AZ24" t="s">
+        <v>120</v>
+      </c>
+      <c r="BA24" t="s">
+        <v>139</v>
+      </c>
+      <c r="BB24" t="s">
+        <v>103</v>
+      </c>
+      <c r="BC24" t="s">
+        <v>139</v>
+      </c>
+      <c r="BD24" t="s">
+        <v>173</v>
+      </c>
+      <c r="BE24" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF24" t="s">
+        <v>87</v>
+      </c>
+      <c r="BG24" t="s">
+        <v>96</v>
+      </c>
+      <c r="BH24" t="s">
+        <v>86</v>
+      </c>
+      <c r="BI24" t="s">
+        <v>96</v>
+      </c>
+      <c r="BJ24" t="s">
+        <v>96</v>
+      </c>
+      <c r="BK24" t="s">
+        <v>96</v>
+      </c>
+      <c r="BL24" t="s">
+        <v>96</v>
+      </c>
+      <c r="BM24" t="s">
+        <v>96</v>
+      </c>
+      <c r="BN24" t="s">
+        <v>96</v>
+      </c>
+      <c r="BO24" t="s">
+        <v>86</v>
+      </c>
+      <c r="BP24" t="s">
+        <v>78</v>
+      </c>
+      <c r="BQ24" t="s">
+        <v>90</v>
+      </c>
+      <c r="BR24" t="s">
+        <v>90</v>
+      </c>
+      <c r="BS24" t="s">
+        <v>101</v>
+      </c>
+      <c r="BT24" t="s">
+        <v>79</v>
+      </c>
+      <c r="BU24" t="s">
+        <v>187</v>
+      </c>
+      <c r="BV24" t="s">
+        <v>127</v>
+      </c>
+      <c r="BW24" t="s">
+        <v>87</v>
+      </c>
+      <c r="BX24" t="s">
+        <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:76">
       <c r="A25" t="s">
-        <v>66</v>
+        <v>220</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>166</v>
       </c>
       <c r="C25" t="s">
-        <v>67</v>
+        <v>138</v>
       </c>
       <c r="D25" t="s">
-        <v>68</v>
+        <v>81</v>
+      </c>
+      <c r="E25" t="s">
+        <v>139</v>
+      </c>
+      <c r="F25" t="s">
+        <v>154</v>
+      </c>
+      <c r="G25" t="s">
+        <v>221</v>
+      </c>
+      <c r="H25" t="s">
+        <v>185</v>
+      </c>
+      <c r="I25" t="s">
+        <v>154</v>
+      </c>
+      <c r="J25" t="s">
+        <v>217</v>
+      </c>
+      <c r="K25" t="s">
+        <v>100</v>
+      </c>
+      <c r="L25" t="s">
+        <v>100</v>
+      </c>
+      <c r="M25" t="s">
+        <v>100</v>
+      </c>
+      <c r="N25" t="s">
+        <v>100</v>
+      </c>
+      <c r="O25" t="s">
+        <v>100</v>
+      </c>
+      <c r="P25" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>100</v>
+      </c>
+      <c r="R25" t="s">
+        <v>100</v>
+      </c>
+      <c r="S25" t="s">
+        <v>100</v>
+      </c>
+      <c r="T25" t="s">
+        <v>100</v>
+      </c>
+      <c r="U25" t="s">
+        <v>222</v>
+      </c>
+      <c r="V25" t="s">
+        <v>100</v>
+      </c>
+      <c r="W25" t="s">
+        <v>100</v>
+      </c>
+      <c r="X25" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>222</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>100</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>100</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>100</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>100</v>
+      </c>
+      <c r="AP25" t="s">
+        <v>100</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>222</v>
+      </c>
+      <c r="AR25" t="s">
+        <v>100</v>
+      </c>
+      <c r="AS25" t="s">
+        <v>100</v>
+      </c>
+      <c r="AT25" t="s">
+        <v>100</v>
+      </c>
+      <c r="AU25" t="s">
+        <v>100</v>
+      </c>
+      <c r="AV25" t="s">
+        <v>100</v>
+      </c>
+      <c r="AW25" t="s">
+        <v>100</v>
+      </c>
+      <c r="AX25" t="s">
+        <v>100</v>
+      </c>
+      <c r="AY25" t="s">
+        <v>163</v>
+      </c>
+      <c r="AZ25" t="s">
+        <v>163</v>
+      </c>
+      <c r="BA25" t="s">
+        <v>163</v>
+      </c>
+      <c r="BB25" t="s">
+        <v>163</v>
+      </c>
+      <c r="BC25" t="s">
+        <v>90</v>
+      </c>
+      <c r="BD25" t="s">
+        <v>90</v>
+      </c>
+      <c r="BE25" t="s">
+        <v>90</v>
+      </c>
+      <c r="BF25" t="s">
+        <v>90</v>
+      </c>
+      <c r="BG25" t="s">
+        <v>90</v>
+      </c>
+      <c r="BH25" t="s">
+        <v>90</v>
+      </c>
+      <c r="BI25" t="s">
+        <v>90</v>
+      </c>
+      <c r="BJ25" t="s">
+        <v>90</v>
+      </c>
+      <c r="BK25" t="s">
+        <v>90</v>
+      </c>
+      <c r="BL25" t="s">
+        <v>90</v>
+      </c>
+      <c r="BM25" t="s">
+        <v>90</v>
+      </c>
+      <c r="BN25" t="s">
+        <v>90</v>
+      </c>
+      <c r="BO25" t="s">
+        <v>90</v>
+      </c>
+      <c r="BP25" t="s">
+        <v>86</v>
+      </c>
+      <c r="BQ25" t="s">
+        <v>223</v>
+      </c>
+      <c r="BR25" t="s">
+        <v>223</v>
+      </c>
+      <c r="BS25" t="s">
+        <v>90</v>
+      </c>
+      <c r="BT25" t="s">
+        <v>90</v>
+      </c>
+      <c r="BU25" t="s">
+        <v>126</v>
+      </c>
+      <c r="BV25" t="s">
+        <v>147</v>
+      </c>
+      <c r="BW25" t="s">
+        <v>121</v>
+      </c>
+      <c r="BX25" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:76">
       <c r="A26" t="s">
-        <v>69</v>
+        <v>224</v>
       </c>
       <c r="B26" t="s">
-        <v>70</v>
+        <v>225</v>
       </c>
       <c r="C26" t="s">
-        <v>70</v>
+        <v>225</v>
       </c>
       <c r="D26" t="s">
-        <v>70</v>
+        <v>225</v>
+      </c>
+      <c r="E26" t="s">
+        <v>173</v>
+      </c>
+      <c r="F26" t="s">
+        <v>173</v>
+      </c>
+      <c r="G26" t="s">
+        <v>173</v>
+      </c>
+      <c r="H26" t="s">
+        <v>173</v>
+      </c>
+      <c r="I26" t="s">
+        <v>173</v>
+      </c>
+      <c r="J26" t="s">
+        <v>173</v>
+      </c>
+      <c r="K26" t="s">
+        <v>222</v>
+      </c>
+      <c r="L26" t="s">
+        <v>222</v>
+      </c>
+      <c r="M26" t="s">
+        <v>222</v>
+      </c>
+      <c r="N26" t="s">
+        <v>222</v>
+      </c>
+      <c r="O26" t="s">
+        <v>226</v>
+      </c>
+      <c r="P26" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>222</v>
+      </c>
+      <c r="R26" t="s">
+        <v>222</v>
+      </c>
+      <c r="S26" t="s">
+        <v>222</v>
+      </c>
+      <c r="T26" t="s">
+        <v>222</v>
+      </c>
+      <c r="U26" t="s">
+        <v>226</v>
+      </c>
+      <c r="V26" t="s">
+        <v>222</v>
+      </c>
+      <c r="W26" t="s">
+        <v>222</v>
+      </c>
+      <c r="X26" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>226</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>222</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>222</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>226</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>222</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>222</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>222</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>222</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>222</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>222</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>222</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>222</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>222</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>222</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>222</v>
+      </c>
+      <c r="AP26" t="s">
+        <v>222</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>226</v>
+      </c>
+      <c r="AR26" t="s">
+        <v>222</v>
+      </c>
+      <c r="AS26" t="s">
+        <v>222</v>
+      </c>
+      <c r="AT26" t="s">
+        <v>222</v>
+      </c>
+      <c r="AU26" t="s">
+        <v>222</v>
+      </c>
+      <c r="AV26" t="s">
+        <v>222</v>
+      </c>
+      <c r="AW26" t="s">
+        <v>222</v>
+      </c>
+      <c r="AX26" t="s">
+        <v>222</v>
+      </c>
+      <c r="AY26" t="s">
+        <v>226</v>
+      </c>
+      <c r="AZ26" t="s">
+        <v>227</v>
+      </c>
+      <c r="BA26" t="s">
+        <v>227</v>
+      </c>
+      <c r="BB26" t="s">
+        <v>228</v>
+      </c>
+      <c r="BC26" t="s">
+        <v>227</v>
+      </c>
+      <c r="BD26" t="s">
+        <v>228</v>
+      </c>
+      <c r="BE26" t="s">
+        <v>228</v>
+      </c>
+      <c r="BF26" t="s">
+        <v>228</v>
+      </c>
+      <c r="BG26" t="s">
+        <v>228</v>
+      </c>
+      <c r="BH26" t="s">
+        <v>227</v>
+      </c>
+      <c r="BI26" t="s">
+        <v>228</v>
+      </c>
+      <c r="BJ26" t="s">
+        <v>228</v>
+      </c>
+      <c r="BK26" t="s">
+        <v>223</v>
+      </c>
+      <c r="BL26" t="s">
+        <v>223</v>
+      </c>
+      <c r="BM26" t="s">
+        <v>223</v>
+      </c>
+      <c r="BN26" t="s">
+        <v>223</v>
+      </c>
+      <c r="BO26" t="s">
+        <v>223</v>
+      </c>
+      <c r="BP26" t="s">
+        <v>90</v>
+      </c>
+      <c r="BQ26" t="s">
+        <v>229</v>
+      </c>
+      <c r="BR26" t="s">
+        <v>229</v>
+      </c>
+      <c r="BS26" t="s">
+        <v>223</v>
+      </c>
+      <c r="BT26" t="s">
+        <v>223</v>
+      </c>
+      <c r="BU26" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV26" t="s">
+        <v>108</v>
+      </c>
+      <c r="BW26" t="s">
+        <v>108</v>
+      </c>
+      <c r="BX26" t="s">
+        <v>108</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:76">
       <c r="A27" t="s">
-        <v>71</v>
+        <v>230</v>
       </c>
       <c r="B27" t="s">
-        <v>72</v>
+        <v>231</v>
       </c>
       <c r="C27" t="s">
-        <v>72</v>
+        <v>231</v>
       </c>
       <c r="D27" t="s">
-        <v>72</v>
+        <v>231</v>
+      </c>
+      <c r="E27" t="s">
+        <v>231</v>
+      </c>
+      <c r="F27" t="s">
+        <v>231</v>
+      </c>
+      <c r="G27" t="s">
+        <v>231</v>
+      </c>
+      <c r="H27" t="s">
+        <v>232</v>
+      </c>
+      <c r="I27" t="s">
+        <v>232</v>
+      </c>
+      <c r="J27" t="s">
+        <v>232</v>
+      </c>
+      <c r="K27" t="s">
+        <v>226</v>
+      </c>
+      <c r="L27" t="s">
+        <v>226</v>
+      </c>
+      <c r="M27" t="s">
+        <v>226</v>
+      </c>
+      <c r="N27" t="s">
+        <v>226</v>
+      </c>
+      <c r="O27" t="s">
+        <v>233</v>
+      </c>
+      <c r="P27" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>226</v>
+      </c>
+      <c r="R27" t="s">
+        <v>226</v>
+      </c>
+      <c r="S27" t="s">
+        <v>226</v>
+      </c>
+      <c r="T27" t="s">
+        <v>226</v>
+      </c>
+      <c r="U27" t="s">
+        <v>233</v>
+      </c>
+      <c r="V27" t="s">
+        <v>226</v>
+      </c>
+      <c r="W27" t="s">
+        <v>226</v>
+      </c>
+      <c r="X27" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>233</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>226</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>226</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>226</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>226</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>233</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>226</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>226</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>226</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>226</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>226</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>226</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>226</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>226</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>226</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>226</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>226</v>
+      </c>
+      <c r="AP27" t="s">
+        <v>226</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>233</v>
+      </c>
+      <c r="AR27" t="s">
+        <v>226</v>
+      </c>
+      <c r="AS27" t="s">
+        <v>226</v>
+      </c>
+      <c r="AT27" t="s">
+        <v>226</v>
+      </c>
+      <c r="AU27" t="s">
+        <v>226</v>
+      </c>
+      <c r="AV27" t="s">
+        <v>226</v>
+      </c>
+      <c r="AW27" t="s">
+        <v>226</v>
+      </c>
+      <c r="AX27" t="s">
+        <v>226</v>
+      </c>
+      <c r="AY27" t="s">
+        <v>229</v>
+      </c>
+      <c r="AZ27" t="s">
+        <v>229</v>
+      </c>
+      <c r="BA27" t="s">
+        <v>229</v>
+      </c>
+      <c r="BB27" t="s">
+        <v>229</v>
+      </c>
+      <c r="BC27" t="s">
+        <v>229</v>
+      </c>
+      <c r="BD27" t="s">
+        <v>229</v>
+      </c>
+      <c r="BE27" t="s">
+        <v>229</v>
+      </c>
+      <c r="BF27" t="s">
+        <v>229</v>
+      </c>
+      <c r="BG27" t="s">
+        <v>229</v>
+      </c>
+      <c r="BH27" t="s">
+        <v>229</v>
+      </c>
+      <c r="BI27" t="s">
+        <v>229</v>
+      </c>
+      <c r="BJ27" t="s">
+        <v>229</v>
+      </c>
+      <c r="BK27" t="s">
+        <v>229</v>
+      </c>
+      <c r="BL27" t="s">
+        <v>229</v>
+      </c>
+      <c r="BM27" t="s">
+        <v>229</v>
+      </c>
+      <c r="BN27" t="s">
+        <v>229</v>
+      </c>
+      <c r="BO27" t="s">
+        <v>229</v>
+      </c>
+      <c r="BP27" t="s">
+        <v>223</v>
+      </c>
+      <c r="BQ27" t="s">
+        <v>150</v>
+      </c>
+      <c r="BR27" t="s">
+        <v>150</v>
+      </c>
+      <c r="BS27" t="s">
+        <v>229</v>
+      </c>
+      <c r="BT27" t="s">
+        <v>229</v>
+      </c>
+      <c r="BU27" t="s">
+        <v>223</v>
+      </c>
+      <c r="BV27" t="s">
+        <v>223</v>
+      </c>
+      <c r="BW27" t="s">
+        <v>223</v>
+      </c>
+      <c r="BX27" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:76">
       <c r="A28" t="s">
-        <v>73</v>
+        <v>235</v>
       </c>
       <c r="B28" t="s">
-        <v>74</v>
+        <v>229</v>
       </c>
       <c r="C28" t="s">
-        <v>74</v>
+        <v>229</v>
       </c>
       <c r="D28" t="s">
-        <v>74</v>
+        <v>229</v>
+      </c>
+      <c r="E28" t="s">
+        <v>229</v>
+      </c>
+      <c r="F28" t="s">
+        <v>236</v>
+      </c>
+      <c r="G28" t="s">
+        <v>233</v>
+      </c>
+      <c r="H28" t="s">
+        <v>233</v>
+      </c>
+      <c r="I28" t="s">
+        <v>233</v>
+      </c>
+      <c r="J28" t="s">
+        <v>233</v>
+      </c>
+      <c r="K28" t="s">
+        <v>233</v>
+      </c>
+      <c r="L28" t="s">
+        <v>233</v>
+      </c>
+      <c r="M28" t="s">
+        <v>233</v>
+      </c>
+      <c r="N28" t="s">
+        <v>233</v>
+      </c>
+      <c r="O28" t="s">
+        <v>170</v>
+      </c>
+      <c r="P28" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>233</v>
+      </c>
+      <c r="R28" t="s">
+        <v>233</v>
+      </c>
+      <c r="S28" t="s">
+        <v>233</v>
+      </c>
+      <c r="T28" t="s">
+        <v>233</v>
+      </c>
+      <c r="U28" t="s">
+        <v>170</v>
+      </c>
+      <c r="V28" t="s">
+        <v>233</v>
+      </c>
+      <c r="W28" t="s">
+        <v>233</v>
+      </c>
+      <c r="X28" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>233</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>233</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>233</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>170</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>233</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>233</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>233</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>233</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>233</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>233</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>233</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>233</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>233</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>233</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>233</v>
+      </c>
+      <c r="AP28" t="s">
+        <v>233</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>170</v>
+      </c>
+      <c r="AR28" t="s">
+        <v>233</v>
+      </c>
+      <c r="AS28" t="s">
+        <v>233</v>
+      </c>
+      <c r="AT28" t="s">
+        <v>170</v>
+      </c>
+      <c r="AU28" t="s">
+        <v>233</v>
+      </c>
+      <c r="AV28" t="s">
+        <v>233</v>
+      </c>
+      <c r="AW28" t="s">
+        <v>233</v>
+      </c>
+      <c r="AX28" t="s">
+        <v>233</v>
+      </c>
+      <c r="AY28" t="s">
+        <v>150</v>
+      </c>
+      <c r="AZ28" t="s">
+        <v>150</v>
+      </c>
+      <c r="BA28" t="s">
+        <v>150</v>
+      </c>
+      <c r="BB28" t="s">
+        <v>150</v>
+      </c>
+      <c r="BC28" t="s">
+        <v>150</v>
+      </c>
+      <c r="BD28" t="s">
+        <v>150</v>
+      </c>
+      <c r="BE28" t="s">
+        <v>150</v>
+      </c>
+      <c r="BF28" t="s">
+        <v>150</v>
+      </c>
+      <c r="BG28" t="s">
+        <v>150</v>
+      </c>
+      <c r="BH28" t="s">
+        <v>150</v>
+      </c>
+      <c r="BI28" t="s">
+        <v>150</v>
+      </c>
+      <c r="BJ28" t="s">
+        <v>150</v>
+      </c>
+      <c r="BK28" t="s">
+        <v>150</v>
+      </c>
+      <c r="BL28" t="s">
+        <v>150</v>
+      </c>
+      <c r="BM28" t="s">
+        <v>150</v>
+      </c>
+      <c r="BN28" t="s">
+        <v>150</v>
+      </c>
+      <c r="BO28" t="s">
+        <v>150</v>
+      </c>
+      <c r="BP28" t="s">
+        <v>229</v>
+      </c>
+      <c r="BQ28" t="s">
+        <v>237</v>
+      </c>
+      <c r="BR28" t="s">
+        <v>124</v>
+      </c>
+      <c r="BS28" t="s">
+        <v>150</v>
+      </c>
+      <c r="BT28" t="s">
+        <v>150</v>
+      </c>
+      <c r="BU28" t="s">
+        <v>229</v>
+      </c>
+      <c r="BV28" t="s">
+        <v>229</v>
+      </c>
+      <c r="BW28" t="s">
+        <v>229</v>
+      </c>
+      <c r="BX28" t="s">
+        <v>229</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:76">
       <c r="A29" t="s">
-        <v>75</v>
+        <v>238</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
+        <v>170</v>
       </c>
       <c r="C29" t="s">
-        <v>76</v>
+        <v>170</v>
       </c>
       <c r="D29" t="s">
-        <v>76</v>
+        <v>170</v>
+      </c>
+      <c r="E29" t="s">
+        <v>170</v>
+      </c>
+      <c r="F29" t="s">
+        <v>170</v>
+      </c>
+      <c r="G29" t="s">
+        <v>170</v>
+      </c>
+      <c r="H29" t="s">
+        <v>170</v>
+      </c>
+      <c r="I29" t="s">
+        <v>170</v>
+      </c>
+      <c r="J29" t="s">
+        <v>170</v>
+      </c>
+      <c r="K29" t="s">
+        <v>170</v>
+      </c>
+      <c r="L29" t="s">
+        <v>170</v>
+      </c>
+      <c r="M29" t="s">
+        <v>170</v>
+      </c>
+      <c r="N29" t="s">
+        <v>170</v>
+      </c>
+      <c r="O29" t="s">
+        <v>239</v>
+      </c>
+      <c r="P29" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>170</v>
+      </c>
+      <c r="R29" t="s">
+        <v>170</v>
+      </c>
+      <c r="S29" t="s">
+        <v>170</v>
+      </c>
+      <c r="T29" t="s">
+        <v>170</v>
+      </c>
+      <c r="U29" t="s">
+        <v>239</v>
+      </c>
+      <c r="V29" t="s">
+        <v>170</v>
+      </c>
+      <c r="W29" t="s">
+        <v>170</v>
+      </c>
+      <c r="X29" t="s">
+        <v>239</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>239</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>170</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>239</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>170</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>170</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>170</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>170</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>170</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>170</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>170</v>
+      </c>
+      <c r="AM29" t="s">
+        <v>170</v>
+      </c>
+      <c r="AN29" t="s">
+        <v>170</v>
+      </c>
+      <c r="AO29" t="s">
+        <v>170</v>
+      </c>
+      <c r="AP29" t="s">
+        <v>170</v>
+      </c>
+      <c r="AQ29" t="s">
+        <v>239</v>
+      </c>
+      <c r="AR29" t="s">
+        <v>170</v>
+      </c>
+      <c r="AS29" t="s">
+        <v>170</v>
+      </c>
+      <c r="AT29" t="s">
+        <v>239</v>
+      </c>
+      <c r="AU29" t="s">
+        <v>170</v>
+      </c>
+      <c r="AV29" t="s">
+        <v>170</v>
+      </c>
+      <c r="AW29" t="s">
+        <v>170</v>
+      </c>
+      <c r="AX29" t="s">
+        <v>170</v>
+      </c>
+      <c r="AY29" t="s">
+        <v>134</v>
+      </c>
+      <c r="AZ29" t="s">
+        <v>130</v>
+      </c>
+      <c r="BA29" t="s">
+        <v>130</v>
+      </c>
+      <c r="BB29" t="s">
+        <v>240</v>
+      </c>
+      <c r="BC29" t="s">
+        <v>93</v>
+      </c>
+      <c r="BD29" t="s">
+        <v>241</v>
+      </c>
+      <c r="BE29" t="s">
+        <v>241</v>
+      </c>
+      <c r="BF29" t="s">
+        <v>242</v>
+      </c>
+      <c r="BG29" t="s">
+        <v>243</v>
+      </c>
+      <c r="BH29" t="s">
+        <v>243</v>
+      </c>
+      <c r="BI29" t="s">
+        <v>237</v>
+      </c>
+      <c r="BJ29" t="s">
+        <v>243</v>
+      </c>
+      <c r="BK29" t="s">
+        <v>243</v>
+      </c>
+      <c r="BL29" t="s">
+        <v>243</v>
+      </c>
+      <c r="BM29" t="s">
+        <v>160</v>
+      </c>
+      <c r="BN29" t="s">
+        <v>160</v>
+      </c>
+      <c r="BO29" t="s">
+        <v>160</v>
+      </c>
+      <c r="BP29" t="s">
+        <v>150</v>
+      </c>
+      <c r="BS29" t="s">
+        <v>244</v>
+      </c>
+      <c r="BT29" t="s">
+        <v>244</v>
+      </c>
+      <c r="BU29" t="s">
+        <v>150</v>
+      </c>
+      <c r="BV29" t="s">
+        <v>150</v>
+      </c>
+      <c r="BW29" t="s">
+        <v>150</v>
+      </c>
+      <c r="BX29" t="s">
+        <v>150</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:76">
       <c r="A30" t="s">
-        <v>77</v>
+        <v>245</v>
       </c>
       <c r="B30" t="s">
-        <v>78</v>
+        <v>246</v>
       </c>
       <c r="C30" t="s">
-        <v>79</v>
+        <v>155</v>
       </c>
       <c r="D30" t="s">
-        <v>80</v>
+        <v>247</v>
+      </c>
+      <c r="E30" t="s">
+        <v>247</v>
+      </c>
+      <c r="F30" t="s">
+        <v>93</v>
+      </c>
+      <c r="G30" t="s">
+        <v>239</v>
+      </c>
+      <c r="H30" t="s">
+        <v>239</v>
+      </c>
+      <c r="I30" t="s">
+        <v>239</v>
+      </c>
+      <c r="J30" t="s">
+        <v>239</v>
+      </c>
+      <c r="K30" t="s">
+        <v>239</v>
+      </c>
+      <c r="L30" t="s">
+        <v>239</v>
+      </c>
+      <c r="M30" t="s">
+        <v>239</v>
+      </c>
+      <c r="N30" t="s">
+        <v>239</v>
+      </c>
+      <c r="P30" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>239</v>
+      </c>
+      <c r="R30" t="s">
+        <v>239</v>
+      </c>
+      <c r="S30" t="s">
+        <v>239</v>
+      </c>
+      <c r="T30" t="s">
+        <v>239</v>
+      </c>
+      <c r="V30" t="s">
+        <v>239</v>
+      </c>
+      <c r="W30" t="s">
+        <v>239</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>239</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>239</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>239</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>239</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>239</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>239</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>239</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>239</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>239</v>
+      </c>
+      <c r="AJ30" t="s">
+        <v>239</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>239</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>239</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>239</v>
+      </c>
+      <c r="AN30" t="s">
+        <v>239</v>
+      </c>
+      <c r="AO30" t="s">
+        <v>239</v>
+      </c>
+      <c r="AP30" t="s">
+        <v>239</v>
+      </c>
+      <c r="AR30" t="s">
+        <v>239</v>
+      </c>
+      <c r="AS30" t="s">
+        <v>239</v>
+      </c>
+      <c r="AU30" t="s">
+        <v>239</v>
+      </c>
+      <c r="AV30" t="s">
+        <v>239</v>
+      </c>
+      <c r="AW30" t="s">
+        <v>239</v>
+      </c>
+      <c r="AX30" t="s">
+        <v>239</v>
+      </c>
+      <c r="BP30" t="s">
+        <v>237</v>
+      </c>
+      <c r="BU30" t="s">
+        <v>244</v>
+      </c>
+      <c r="BV30" t="s">
+        <v>248</v>
+      </c>
+      <c r="BW30" t="s">
+        <v>248</v>
+      </c>
+      <c r="BX30" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>
